--- a/models/class_results.xlsx
+++ b/models/class_results.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="20">
   <si>
     <t>Модель</t>
   </si>
@@ -37,6 +37,14 @@
     <t>LinearRegression(copy_X=True, fit_intercept=True, n_jobs=None, normalize=False)</t>
   </si>
   <si>
+    <t>AdaBoostRegressor(base_estimator=None, learning_rate=2, loss='square',
+                  n_estimators=500, random_state=4)</t>
+  </si>
+  <si>
+    <t>AdaBoostRegressor(base_estimator=None, learning_rate=2, loss='square',
+                  n_estimators=50, random_state=4)</t>
+  </si>
+  <si>
     <t>Обучение на среднем ЭЛО по начинающим</t>
   </si>
   <si>
@@ -59,6 +67,15 @@
   </si>
   <si>
     <t>Обучение на разнице в  ЭЛО по гроссмейстерам</t>
+  </si>
+  <si>
+    <t>Обучение на разнице ЭЛО по средним игрокам</t>
+  </si>
+  <si>
+    <t>Обучение на разнице ЭЛО по мастерам</t>
+  </si>
+  <si>
+    <t>Обучение на разнице ЭЛО по гроссмейстерам</t>
   </si>
 </sst>
 </file>
@@ -416,7 +433,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -459,7 +476,7 @@
         <v>0.104</v>
       </c>
       <c r="F2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -479,7 +496,7 @@
         <v>0.117</v>
       </c>
       <c r="F3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -499,7 +516,7 @@
         <v>0.104</v>
       </c>
       <c r="F4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -519,7 +536,7 @@
         <v>0.105</v>
       </c>
       <c r="F5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -539,7 +556,7 @@
         <v>0.113</v>
       </c>
       <c r="F6" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -559,7 +576,7 @@
         <v>0.12</v>
       </c>
       <c r="F7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -579,7 +596,7 @@
         <v>0.026</v>
       </c>
       <c r="F8" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -599,7 +616,167 @@
         <v>0.03</v>
       </c>
       <c r="F9" t="s">
-        <v>14</v>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10">
+        <v>233.1653845571148</v>
+      </c>
+      <c r="C10">
+        <v>286.9562596472833</v>
+      </c>
+      <c r="D10">
+        <v>0.09847665990112991</v>
+      </c>
+      <c r="E10">
+        <v>47.529</v>
+      </c>
+      <c r="F10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11">
+        <v>180.6022891820447</v>
+      </c>
+      <c r="C11">
+        <v>225.785633255246</v>
+      </c>
+      <c r="D11">
+        <v>0.5207415601137758</v>
+      </c>
+      <c r="E11">
+        <v>5.654</v>
+      </c>
+      <c r="F11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12">
+        <v>178.7144244114244</v>
+      </c>
+      <c r="C12">
+        <v>223.9988423547146</v>
+      </c>
+      <c r="D12">
+        <v>0.08742568871617123</v>
+      </c>
+      <c r="E12">
+        <v>52.226</v>
+      </c>
+      <c r="F12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13">
+        <v>173.1788871912252</v>
+      </c>
+      <c r="C13">
+        <v>217.8972930455475</v>
+      </c>
+      <c r="D13">
+        <v>0.5335941738946682</v>
+      </c>
+      <c r="E13">
+        <v>6.853</v>
+      </c>
+      <c r="F13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14">
+        <v>156.456767575112</v>
+      </c>
+      <c r="C14">
+        <v>202.0641879629058</v>
+      </c>
+      <c r="D14">
+        <v>0.1012139125317426</v>
+      </c>
+      <c r="E14">
+        <v>70.938</v>
+      </c>
+      <c r="F14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15">
+        <v>149.6164041362393</v>
+      </c>
+      <c r="C15">
+        <v>187.6973251688672</v>
+      </c>
+      <c r="D15">
+        <v>0.4786854859811875</v>
+      </c>
+      <c r="E15">
+        <v>8.023999999999999</v>
+      </c>
+      <c r="F15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16">
+        <v>166.6685105924642</v>
+      </c>
+      <c r="C16">
+        <v>240.3238428584914</v>
+      </c>
+      <c r="D16">
+        <v>0.1091375310880602</v>
+      </c>
+      <c r="E16">
+        <v>4.31</v>
+      </c>
+      <c r="F16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17">
+        <v>192.1248724731042</v>
+      </c>
+      <c r="C17">
+        <v>226.8493667605132</v>
+      </c>
+      <c r="D17">
+        <v>0.1214439016384379</v>
+      </c>
+      <c r="E17">
+        <v>0.544</v>
+      </c>
+      <c r="F17" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/models/class_results.xlsx
+++ b/models/class_results.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="22">
   <si>
     <t>Модель</t>
   </si>
@@ -43,6 +43,24 @@
   <si>
     <t>AdaBoostRegressor(base_estimator=None, learning_rate=2, loss='square',
                   n_estimators=50, random_state=4)</t>
+  </si>
+  <si>
+    <t>RandomForestRegressor(bootstrap=False, criterion='mae', max_depth=None,
+                      max_features=2, max_leaf_nodes=None,
+                      min_impurity_decrease=0.0, min_impurity_split=None,
+                      min_samples_leaf=1, min_samples_split=5,
+                      min_weight_fraction_leaf=0.0, n_estimators=200, n_jobs=-1,
+                      oob_score=False, random_state=4, verbose=0,
+                      warm_start=False)</t>
+  </si>
+  <si>
+    <t>RandomForestRegressor(bootstrap=True, criterion='mae', max_depth=None,
+                      max_features=1, max_leaf_nodes=None,
+                      min_impurity_decrease=0.0, min_impurity_split=None,
+                      min_samples_leaf=5, min_samples_split=25,
+                      min_weight_fraction_leaf=0.0, n_estimators=500, n_jobs=-1,
+                      oob_score=True, random_state=4, verbose=0,
+                      warm_start=False)</t>
   </si>
   <si>
     <t>Обучение на среднем ЭЛО по начинающим</t>
@@ -433,7 +451,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -476,7 +494,7 @@
         <v>0.104</v>
       </c>
       <c r="F2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -496,7 +514,7 @@
         <v>0.117</v>
       </c>
       <c r="F3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -516,7 +534,7 @@
         <v>0.104</v>
       </c>
       <c r="F4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -536,7 +554,7 @@
         <v>0.105</v>
       </c>
       <c r="F5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -556,7 +574,7 @@
         <v>0.113</v>
       </c>
       <c r="F6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -576,7 +594,7 @@
         <v>0.12</v>
       </c>
       <c r="F7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -596,7 +614,7 @@
         <v>0.026</v>
       </c>
       <c r="F8" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -616,7 +634,7 @@
         <v>0.03</v>
       </c>
       <c r="F9" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -636,7 +654,7 @@
         <v>47.529</v>
       </c>
       <c r="F10" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -656,7 +674,7 @@
         <v>5.654</v>
       </c>
       <c r="F11" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -676,7 +694,7 @@
         <v>52.226</v>
       </c>
       <c r="F12" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -696,7 +714,7 @@
         <v>6.853</v>
       </c>
       <c r="F13" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -716,7 +734,7 @@
         <v>70.938</v>
       </c>
       <c r="F14" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -736,7 +754,7 @@
         <v>8.023999999999999</v>
       </c>
       <c r="F15" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -756,7 +774,7 @@
         <v>4.31</v>
       </c>
       <c r="F16" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -776,7 +794,167 @@
         <v>0.544</v>
       </c>
       <c r="F17" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18">
+        <v>190.5570633074936</v>
+      </c>
+      <c r="C18">
+        <v>241.7540350599111</v>
+      </c>
+      <c r="D18">
+        <v>0.1991271714983679</v>
+      </c>
+      <c r="E18">
+        <v>52.901</v>
+      </c>
+      <c r="F18" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19">
+        <v>175.8677509043928</v>
+      </c>
+      <c r="C19">
+        <v>219.279533113634</v>
+      </c>
+      <c r="D19">
+        <v>0.5629182358304787</v>
+      </c>
+      <c r="E19">
+        <v>18.861</v>
+      </c>
+      <c r="F19" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="B20">
+        <v>149.1483317647059</v>
+      </c>
+      <c r="C20">
+        <v>194.6538439879729</v>
+      </c>
+      <c r="D20">
+        <v>0.08066975727356533</v>
+      </c>
+      <c r="E20">
+        <v>44.961</v>
+      </c>
+      <c r="F20" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21">
+        <v>163.0466188235294</v>
+      </c>
+      <c r="C21">
+        <v>204.0776518360113</v>
+      </c>
+      <c r="D21">
+        <v>0.5868751957029493</v>
+      </c>
+      <c r="E21">
+        <v>20.562</v>
+      </c>
+      <c r="F21" t="s">
         <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" t="s">
+        <v>9</v>
+      </c>
+      <c r="B22">
+        <v>145.0770032713499</v>
+      </c>
+      <c r="C22">
+        <v>188.0763812336758</v>
+      </c>
+      <c r="D22">
+        <v>0.1396110416013915</v>
+      </c>
+      <c r="E22">
+        <v>63.469</v>
+      </c>
+      <c r="F22" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" t="s">
+        <v>10</v>
+      </c>
+      <c r="B23">
+        <v>142.0442930440771</v>
+      </c>
+      <c r="C23">
+        <v>175.87603316894</v>
+      </c>
+      <c r="D23">
+        <v>0.516839101031854</v>
+      </c>
+      <c r="E23">
+        <v>35.512</v>
+      </c>
+      <c r="F23" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" t="s">
+        <v>9</v>
+      </c>
+      <c r="B24">
+        <v>153.4842777777778</v>
+      </c>
+      <c r="C24">
+        <v>196.1299232921264</v>
+      </c>
+      <c r="D24">
+        <v>0.1103796483152859</v>
+      </c>
+      <c r="E24">
+        <v>2.331</v>
+      </c>
+      <c r="F24" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25">
+        <v>103.6236</v>
+      </c>
+      <c r="C25">
+        <v>133.4335222117312</v>
+      </c>
+      <c r="D25">
+        <v>0.2735274316719518</v>
+      </c>
+      <c r="E25">
+        <v>1.555</v>
+      </c>
+      <c r="F25" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/models/class_results.xlsx
+++ b/models/class_results.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="33">
   <si>
     <t>Модель</t>
   </si>
@@ -70,6 +70,47 @@
                     min_weight_fraction_leaf=0.0, n_estimators=500, n_jobs=-1,
                     oob_score=False, random_state=4, verbose=0,
                     warm_start=False)</t>
+  </si>
+  <si>
+    <t>KNeighborsRegressor(algorithm='auto', leaf_size=15, metric='chebyshev',
+                    metric_params=None, n_jobs=-1, n_neighbors=2, p=2,
+                    weights='distance')</t>
+  </si>
+  <si>
+    <t>KNeighborsRegressor(algorithm='auto', leaf_size=30, metric='euclidean',
+                    metric_params=None, n_jobs=-1, n_neighbors=3, p=2,
+                    weights='uniform')</t>
+  </si>
+  <si>
+    <t>SVR(C=1.0, cache_size=200, coef0=0.0, degree=3, epsilon=0.1, gamma='auto',
+    kernel='rbf', max_iter=-1, shrinking=True, tol=0.001, verbose=False)</t>
+  </si>
+  <si>
+    <t>ElasticNet(alpha=1, copy_X=True, fit_intercept=False, l1_ratio=0, max_iter=1000,
+           normalize=False, positive=False, precompute=False, random_state=4,
+           selection='cyclic', tol=0.0001, warm_start=False)</t>
+  </si>
+  <si>
+    <t>ElasticNet(alpha=0.5, copy_X=True, fit_intercept=True, l1_ratio=1,
+           max_iter=1000, normalize=False, positive=False, precompute=False,
+           random_state=4, selection='cyclic', tol=0.0001, warm_start=False)</t>
+  </si>
+  <si>
+    <t>XGBRegressor(base_score=0.5, booster='gbtree', colsample_bylevel=1,
+             colsample_bytree=1, gamma=0, importance_type='gain',
+             learning_rate=0, max_delta_step=0, max_depth=3, min_child_weight=1,
+             missing=None, n_estimators=50, n_jobs=1, nthread=4,
+             objective='reg:linear', random_state=0, reg_alpha=0, reg_lambda=1,
+             scale_pos_weight=1, seed=4, silent=True, subsample=0.2)</t>
+  </si>
+  <si>
+    <t>XGBRegressor(base_score=0.5, booster='gbtree', colsample_bylevel=1,
+             colsample_bytree=1, gamma=0.9, importance_type='gain',
+             learning_rate=0.5, max_delta_step=0, max_depth=15,
+             min_child_weight=1, missing=None, n_estimators=50, n_jobs=1,
+             nthread=4, objective='reg:linear', random_state=0, reg_alpha=0,
+             reg_lambda=1, scale_pos_weight=1, seed=4, silent=True,
+             subsample=0.2)</t>
   </si>
   <si>
     <t>Обучение на среднем ЭЛО по кластеру 1</t>
@@ -469,7 +510,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F34"/>
+  <dimension ref="A1:F74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -512,7 +553,7 @@
         <v>0.026</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -532,7 +573,7 @@
         <v>0.032</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -552,7 +593,7 @@
         <v>0.04</v>
       </c>
       <c r="F4" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -572,7 +613,7 @@
         <v>0.039</v>
       </c>
       <c r="F5" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -592,7 +633,7 @@
         <v>0.04</v>
       </c>
       <c r="F6" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -612,7 +653,7 @@
         <v>0.028</v>
       </c>
       <c r="F7" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -632,7 +673,7 @@
         <v>0.028</v>
       </c>
       <c r="F8" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -652,7 +693,7 @@
         <v>0.037</v>
       </c>
       <c r="F9" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -672,7 +713,7 @@
         <v>15.508</v>
       </c>
       <c r="F10" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -692,7 +733,7 @@
         <v>7.519</v>
       </c>
       <c r="F11" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -712,7 +753,7 @@
         <v>35.547</v>
       </c>
       <c r="F12" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -732,7 +773,7 @@
         <v>24.118</v>
       </c>
       <c r="F13" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -752,7 +793,7 @@
         <v>25.474</v>
       </c>
       <c r="F14" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -772,7 +813,7 @@
         <v>13.734</v>
       </c>
       <c r="F15" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -792,7 +833,7 @@
         <v>21.127</v>
       </c>
       <c r="F16" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -812,7 +853,7 @@
         <v>13.272</v>
       </c>
       <c r="F17" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -832,7 +873,7 @@
         <v>11.439</v>
       </c>
       <c r="F18" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -852,7 +893,7 @@
         <v>11.205</v>
       </c>
       <c r="F19" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -872,7 +913,7 @@
         <v>1.771</v>
       </c>
       <c r="F20" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -892,7 +933,7 @@
         <v>34.275</v>
       </c>
       <c r="F21" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -912,7 +953,7 @@
         <v>3.448</v>
       </c>
       <c r="F22" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -932,7 +973,7 @@
         <v>23.751</v>
       </c>
       <c r="F23" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -952,7 +993,7 @@
         <v>2.169</v>
       </c>
       <c r="F24" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -972,7 +1013,7 @@
         <v>23.867</v>
       </c>
       <c r="F25" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -992,7 +1033,7 @@
         <v>2.246</v>
       </c>
       <c r="F26" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1012,7 +1053,7 @@
         <v>609.683</v>
       </c>
       <c r="F27" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1032,7 +1073,7 @@
         <v>441.77</v>
       </c>
       <c r="F28" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1052,7 +1093,7 @@
         <v>1328.309</v>
       </c>
       <c r="F29" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1072,7 +1113,7 @@
         <v>1268.388</v>
       </c>
       <c r="F30" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1092,7 +1133,7 @@
         <v>892.593</v>
       </c>
       <c r="F31" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1112,7 +1153,7 @@
         <v>851.51</v>
       </c>
       <c r="F32" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1132,7 +1173,7 @@
         <v>802.207</v>
       </c>
       <c r="F33" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1152,7 +1193,792 @@
         <v>763.881</v>
       </c>
       <c r="F34" t="s">
-        <v>24</v>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" t="s">
+        <v>12</v>
+      </c>
+      <c r="B35">
+        <v>133.7089090370034</v>
+      </c>
+      <c r="C35">
+        <v>168.9641799406613</v>
+      </c>
+      <c r="D35">
+        <v>-0.01168849843694177</v>
+      </c>
+      <c r="E35">
+        <v>0.478</v>
+      </c>
+      <c r="F35" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" t="s">
+        <v>13</v>
+      </c>
+      <c r="B36">
+        <v>221.1149335418295</v>
+      </c>
+      <c r="C36">
+        <v>272.2348828962863</v>
+      </c>
+      <c r="D36">
+        <v>0.2793407309149463</v>
+      </c>
+      <c r="E36">
+        <v>0.135</v>
+      </c>
+      <c r="F36" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" t="s">
+        <v>12</v>
+      </c>
+      <c r="B37">
+        <v>95.565813092524</v>
+      </c>
+      <c r="C37">
+        <v>120.1139826765873</v>
+      </c>
+      <c r="D37">
+        <v>-0.001899400786283758</v>
+      </c>
+      <c r="E37">
+        <v>0.181</v>
+      </c>
+      <c r="F37" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" t="s">
+        <v>13</v>
+      </c>
+      <c r="B38">
+        <v>129.5312246553123</v>
+      </c>
+      <c r="C38">
+        <v>162.9118760397184</v>
+      </c>
+      <c r="D38">
+        <v>0.2896412616245618</v>
+      </c>
+      <c r="E38">
+        <v>0.288</v>
+      </c>
+      <c r="F38" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" t="s">
+        <v>12</v>
+      </c>
+      <c r="B39">
+        <v>97.33909648712661</v>
+      </c>
+      <c r="C39">
+        <v>119.402582193589</v>
+      </c>
+      <c r="D39">
+        <v>0.005159687431444075</v>
+      </c>
+      <c r="E39">
+        <v>0.158</v>
+      </c>
+      <c r="F39" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" t="s">
+        <v>13</v>
+      </c>
+      <c r="B40">
+        <v>121.5790944661822</v>
+      </c>
+      <c r="C40">
+        <v>154.9748594704444</v>
+      </c>
+      <c r="D40">
+        <v>0.1922962664094021</v>
+      </c>
+      <c r="E40">
+        <v>0.145</v>
+      </c>
+      <c r="F40" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" t="s">
+        <v>12</v>
+      </c>
+      <c r="B41">
+        <v>95.92113104853699</v>
+      </c>
+      <c r="C41">
+        <v>117.6281179688822</v>
+      </c>
+      <c r="D41">
+        <v>0.03673457522049366</v>
+      </c>
+      <c r="E41">
+        <v>0.16</v>
+      </c>
+      <c r="F41" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" t="s">
+        <v>13</v>
+      </c>
+      <c r="B42">
+        <v>122.6309250764526</v>
+      </c>
+      <c r="C42">
+        <v>157.4658492901256</v>
+      </c>
+      <c r="D42">
+        <v>0.2102768669583132</v>
+      </c>
+      <c r="E42">
+        <v>0.163</v>
+      </c>
+      <c r="F42" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" t="s">
+        <v>14</v>
+      </c>
+      <c r="B43">
+        <v>108.1265745808357</v>
+      </c>
+      <c r="C43">
+        <v>141.6529149920891</v>
+      </c>
+      <c r="E43">
+        <v>4.502</v>
+      </c>
+      <c r="F43" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" t="s">
+        <v>14</v>
+      </c>
+      <c r="B44">
+        <v>224.492744331509</v>
+      </c>
+      <c r="C44">
+        <v>263.4679916847147</v>
+      </c>
+      <c r="D44">
+        <v>4.993194067034013e-17</v>
+      </c>
+      <c r="E44">
+        <v>5.053</v>
+      </c>
+      <c r="F44" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" t="s">
+        <v>14</v>
+      </c>
+      <c r="B45">
+        <v>77.80384428257317</v>
+      </c>
+      <c r="C45">
+        <v>98.04976392193548</v>
+      </c>
+      <c r="D45">
+        <v>-0.04655159831481384</v>
+      </c>
+      <c r="E45">
+        <v>16.371</v>
+      </c>
+      <c r="F45" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" t="s">
+        <v>14</v>
+      </c>
+      <c r="B46">
+        <v>128.0990754254385</v>
+      </c>
+      <c r="C46">
+        <v>157.2561459739556</v>
+      </c>
+      <c r="D46">
+        <v>0.0133068493096273</v>
+      </c>
+      <c r="E46">
+        <v>16.042</v>
+      </c>
+      <c r="F46" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" t="s">
+        <v>14</v>
+      </c>
+      <c r="B47">
+        <v>83.55472330910257</v>
+      </c>
+      <c r="C47">
+        <v>97.61369303921067</v>
+      </c>
+      <c r="D47">
+        <v>0.00316527595184076</v>
+      </c>
+      <c r="E47">
+        <v>6.731</v>
+      </c>
+      <c r="F47" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" t="s">
+        <v>14</v>
+      </c>
+      <c r="B48">
+        <v>111.496710053493</v>
+      </c>
+      <c r="C48">
+        <v>145.7352661226745</v>
+      </c>
+      <c r="D48">
+        <v>0.0007482165497200133</v>
+      </c>
+      <c r="E48">
+        <v>6.693</v>
+      </c>
+      <c r="F48" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" t="s">
+        <v>14</v>
+      </c>
+      <c r="B49">
+        <v>82.82359518349037</v>
+      </c>
+      <c r="C49">
+        <v>97.19757749605427</v>
+      </c>
+      <c r="D49">
+        <v>-0.01473657296710539</v>
+      </c>
+      <c r="E49">
+        <v>6.398</v>
+      </c>
+      <c r="F49" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" t="s">
+        <v>14</v>
+      </c>
+      <c r="B50">
+        <v>111.1142201834821</v>
+      </c>
+      <c r="C50">
+        <v>147.9376379839132</v>
+      </c>
+      <c r="D50">
+        <v>0.01381398375215726</v>
+      </c>
+      <c r="E50">
+        <v>6.553</v>
+      </c>
+      <c r="F50" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" t="s">
+        <v>12</v>
+      </c>
+      <c r="B51">
+        <v>133.7089090370034</v>
+      </c>
+      <c r="C51">
+        <v>168.9641799406613</v>
+      </c>
+      <c r="D51">
+        <v>-0.01168849843694177</v>
+      </c>
+      <c r="E51">
+        <v>0.137</v>
+      </c>
+      <c r="F51" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" t="s">
+        <v>13</v>
+      </c>
+      <c r="B52">
+        <v>221.1149335418295</v>
+      </c>
+      <c r="C52">
+        <v>272.2348828962863</v>
+      </c>
+      <c r="D52">
+        <v>0.2793407309149463</v>
+      </c>
+      <c r="E52">
+        <v>0.144</v>
+      </c>
+      <c r="F52" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" t="s">
+        <v>12</v>
+      </c>
+      <c r="B53">
+        <v>95.565813092524</v>
+      </c>
+      <c r="C53">
+        <v>120.1139826765873</v>
+      </c>
+      <c r="D53">
+        <v>-0.001899400786283758</v>
+      </c>
+      <c r="E53">
+        <v>0.182</v>
+      </c>
+      <c r="F53" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" t="s">
+        <v>13</v>
+      </c>
+      <c r="B54">
+        <v>129.5312246553123</v>
+      </c>
+      <c r="C54">
+        <v>162.9118760397184</v>
+      </c>
+      <c r="D54">
+        <v>0.2896412616245618</v>
+      </c>
+      <c r="E54">
+        <v>0.302</v>
+      </c>
+      <c r="F54" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" t="s">
+        <v>12</v>
+      </c>
+      <c r="B55">
+        <v>97.33909648712661</v>
+      </c>
+      <c r="C55">
+        <v>119.402582193589</v>
+      </c>
+      <c r="D55">
+        <v>0.005159687431444075</v>
+      </c>
+      <c r="E55">
+        <v>0.169</v>
+      </c>
+      <c r="F55" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" t="s">
+        <v>13</v>
+      </c>
+      <c r="B56">
+        <v>121.5790944661822</v>
+      </c>
+      <c r="C56">
+        <v>154.9748594704444</v>
+      </c>
+      <c r="D56">
+        <v>0.1922962664094021</v>
+      </c>
+      <c r="E56">
+        <v>0.165</v>
+      </c>
+      <c r="F56" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" t="s">
+        <v>12</v>
+      </c>
+      <c r="B57">
+        <v>95.92113104853699</v>
+      </c>
+      <c r="C57">
+        <v>117.6281179688822</v>
+      </c>
+      <c r="D57">
+        <v>0.03673457522049366</v>
+      </c>
+      <c r="E57">
+        <v>0.169</v>
+      </c>
+      <c r="F57" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" t="s">
+        <v>13</v>
+      </c>
+      <c r="B58">
+        <v>122.6309250764526</v>
+      </c>
+      <c r="C58">
+        <v>157.4658492901256</v>
+      </c>
+      <c r="D58">
+        <v>0.2102768669583132</v>
+      </c>
+      <c r="E58">
+        <v>0.156</v>
+      </c>
+      <c r="F58" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59" t="s">
+        <v>15</v>
+      </c>
+      <c r="B59">
+        <v>162.0040840825856</v>
+      </c>
+      <c r="C59">
+        <v>203.8771895995086</v>
+      </c>
+      <c r="D59">
+        <v>0.07552333862003648</v>
+      </c>
+      <c r="E59">
+        <v>0.6860000000000001</v>
+      </c>
+      <c r="F59" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" t="s">
+        <v>16</v>
+      </c>
+      <c r="B60">
+        <v>181.0495433529543</v>
+      </c>
+      <c r="C60">
+        <v>229.605103465169</v>
+      </c>
+      <c r="D60">
+        <v>0.4987449813640468</v>
+      </c>
+      <c r="E60">
+        <v>0.515</v>
+      </c>
+      <c r="F60" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61" t="s">
+        <v>15</v>
+      </c>
+      <c r="B61">
+        <v>188.6584970267405</v>
+      </c>
+      <c r="C61">
+        <v>246.8109276767285</v>
+      </c>
+      <c r="D61">
+        <v>-0.02958557276139648</v>
+      </c>
+      <c r="E61">
+        <v>0.969</v>
+      </c>
+      <c r="F61" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62" t="s">
+        <v>16</v>
+      </c>
+      <c r="B62">
+        <v>111.2534249314224</v>
+      </c>
+      <c r="C62">
+        <v>138.8320564627319</v>
+      </c>
+      <c r="D62">
+        <v>0.4700980198188816</v>
+      </c>
+      <c r="E62">
+        <v>1.053</v>
+      </c>
+      <c r="F62" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63" t="s">
+        <v>15</v>
+      </c>
+      <c r="B63">
+        <v>160.6619065173788</v>
+      </c>
+      <c r="C63">
+        <v>217.8329308924756</v>
+      </c>
+      <c r="D63">
+        <v>0.03867702707287873</v>
+      </c>
+      <c r="E63">
+        <v>0.78</v>
+      </c>
+      <c r="F63" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64" t="s">
+        <v>16</v>
+      </c>
+      <c r="B64">
+        <v>107.4913766131065</v>
+      </c>
+      <c r="C64">
+        <v>136.9015318610281</v>
+      </c>
+      <c r="D64">
+        <v>0.3338478856345194</v>
+      </c>
+      <c r="E64">
+        <v>0.8129999999999999</v>
+      </c>
+      <c r="F64" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65" t="s">
+        <v>15</v>
+      </c>
+      <c r="B65">
+        <v>231.7645182599025</v>
+      </c>
+      <c r="C65">
+        <v>2517.134124095033</v>
+      </c>
+      <c r="D65">
+        <v>-0.0190609739699111</v>
+      </c>
+      <c r="E65">
+        <v>0.573</v>
+      </c>
+      <c r="F65" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66" t="s">
+        <v>16</v>
+      </c>
+      <c r="B66">
+        <v>113.8696466351545</v>
+      </c>
+      <c r="C66">
+        <v>417.1690030547619</v>
+      </c>
+      <c r="D66">
+        <v>0.03326433876064689</v>
+      </c>
+      <c r="E66">
+        <v>0.643</v>
+      </c>
+      <c r="F66" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67" t="s">
+        <v>17</v>
+      </c>
+      <c r="B67">
+        <v>1858.638389366693</v>
+      </c>
+      <c r="C67">
+        <v>1863.674886110252</v>
+      </c>
+      <c r="E67">
+        <v>0.216</v>
+      </c>
+      <c r="F67" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68" t="s">
+        <v>18</v>
+      </c>
+      <c r="B68">
+        <v>533.0746713344523</v>
+      </c>
+      <c r="C68">
+        <v>668.5925779114242</v>
+      </c>
+      <c r="D68">
+        <v>0.1175238276591988</v>
+      </c>
+      <c r="E68">
+        <v>1.27</v>
+      </c>
+      <c r="F68" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69" t="s">
+        <v>17</v>
+      </c>
+      <c r="B69">
+        <v>2493.228710462287</v>
+      </c>
+      <c r="C69">
+        <v>2495.104839313298</v>
+      </c>
+      <c r="E69">
+        <v>0.319</v>
+      </c>
+      <c r="F69" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70" t="s">
+        <v>18</v>
+      </c>
+      <c r="B70">
+        <v>293.3310810589539</v>
+      </c>
+      <c r="C70">
+        <v>367.9562680662432</v>
+      </c>
+      <c r="D70">
+        <v>0.1099147808442457</v>
+      </c>
+      <c r="E70">
+        <v>2.117</v>
+      </c>
+      <c r="F70" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="A71" t="s">
+        <v>17</v>
+      </c>
+      <c r="B71">
+        <v>2201.437954164337</v>
+      </c>
+      <c r="C71">
+        <v>2203.600736105418</v>
+      </c>
+      <c r="E71">
+        <v>0.225</v>
+      </c>
+      <c r="F71" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="A72" t="s">
+        <v>18</v>
+      </c>
+      <c r="B72">
+        <v>285.4666190547208</v>
+      </c>
+      <c r="C72">
+        <v>364.5220375059899</v>
+      </c>
+      <c r="D72">
+        <v>0.06642966600310517</v>
+      </c>
+      <c r="E72">
+        <v>1.383</v>
+      </c>
+      <c r="F72" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
+      <c r="A73" t="s">
+        <v>17</v>
+      </c>
+      <c r="B73">
+        <v>2210.196674311926</v>
+      </c>
+      <c r="C73">
+        <v>2212.325449497748</v>
+      </c>
+      <c r="E73">
+        <v>0.217</v>
+      </c>
+      <c r="F73" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
+      <c r="A74" t="s">
+        <v>18</v>
+      </c>
+      <c r="B74">
+        <v>315.0607372936579</v>
+      </c>
+      <c r="C74">
+        <v>394.8629400136957</v>
+      </c>
+      <c r="D74">
+        <v>0.0679595543516346</v>
+      </c>
+      <c r="E74">
+        <v>1.768</v>
+      </c>
+      <c r="F74" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/models/class_results.xlsx
+++ b/models/class_results.xlsx
@@ -1,20 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\PredictingRatings\models\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="33">
   <si>
     <t>Модель</t>
   </si>
@@ -158,8 +163,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -218,17 +223,25 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -266,9 +279,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -300,9 +313,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -334,9 +348,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -509,14 +524,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F74"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="I73" sqref="I73"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.140625" customWidth="1"/>
+    <col min="2" max="2" width="22.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -536,7 +557,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -544,50 +565,50 @@
         <v>102.9807772127814</v>
       </c>
       <c r="C2">
-        <v>129.0026838446255</v>
+        <v>129.00268384462549</v>
       </c>
       <c r="D2">
-        <v>0.3101891235985902</v>
+        <v>0.31018912359859019</v>
       </c>
       <c r="E2">
-        <v>0.026</v>
+        <v>2.5999999999999999E-2</v>
       </c>
       <c r="F2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
       <c r="B3">
-        <v>173.6768164921847</v>
+        <v>173.67681649218471</v>
       </c>
       <c r="C3">
-        <v>218.0610047170883</v>
+        <v>218.06100471708831</v>
       </c>
       <c r="D3">
-        <v>0.5649173284207548</v>
+        <v>0.56491732842075482</v>
       </c>
       <c r="E3">
-        <v>0.032</v>
+        <v>3.2000000000000001E-2</v>
       </c>
       <c r="F3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
       <c r="B4">
-        <v>77.38712559097002</v>
+        <v>77.387125590970015</v>
       </c>
       <c r="C4">
-        <v>95.7975675379928</v>
+        <v>95.797567537992805</v>
       </c>
       <c r="D4">
-        <v>0.2175725437242675</v>
+        <v>0.21757254372426749</v>
       </c>
       <c r="E4">
         <v>0.04</v>
@@ -596,38 +617,38 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
       <c r="B5">
-        <v>108.6086250406207</v>
+        <v>108.60862504062069</v>
       </c>
       <c r="C5">
         <v>135.8539818808093</v>
       </c>
       <c r="D5">
-        <v>0.5015885580225455</v>
+        <v>0.50158855802254554</v>
       </c>
       <c r="E5">
-        <v>0.039</v>
+        <v>3.9E-2</v>
       </c>
       <c r="F5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
       <c r="B6">
-        <v>80.61675507921795</v>
+        <v>80.616755079217953</v>
       </c>
       <c r="C6">
         <v>94.97498995796164</v>
       </c>
       <c r="D6">
-        <v>0.2378129055944802</v>
+        <v>0.23781290559448021</v>
       </c>
       <c r="E6">
         <v>0.04</v>
@@ -636,7 +657,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -644,39 +665,39 @@
         <v>102.869006477094</v>
       </c>
       <c r="C7">
-        <v>132.8270104335448</v>
+        <v>132.82701043354481</v>
       </c>
       <c r="D7">
-        <v>0.3901094901347655</v>
+        <v>0.39010949013476548</v>
       </c>
       <c r="E7">
-        <v>0.028</v>
+        <v>2.8000000000000001E-2</v>
       </c>
       <c r="F7" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>80.31981788444814</v>
+        <v>80.319817884448142</v>
       </c>
       <c r="C8">
-        <v>94.82994059507067</v>
+        <v>94.829940595070667</v>
       </c>
       <c r="D8">
         <v>0.2286830746748991</v>
       </c>
       <c r="E8">
-        <v>0.028</v>
+        <v>2.8000000000000001E-2</v>
       </c>
       <c r="F8" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -687,16 +708,16 @@
         <v>134.6304044763221</v>
       </c>
       <c r="D9">
-        <v>0.4048795631611896</v>
+        <v>0.40487956316118962</v>
       </c>
       <c r="E9">
-        <v>0.037</v>
+        <v>3.6999999999999998E-2</v>
       </c>
       <c r="F9" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -704,19 +725,19 @@
         <v>106.9246012509773</v>
       </c>
       <c r="C10">
-        <v>132.042951936661</v>
+        <v>132.04295193666101</v>
       </c>
       <c r="D10">
-        <v>0.2695257832515613</v>
+        <v>0.26952578325156129</v>
       </c>
       <c r="E10">
-        <v>15.508</v>
+        <v>15.507999999999999</v>
       </c>
       <c r="F10" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -727,36 +748,36 @@
         <v>229.3154734519922</v>
       </c>
       <c r="D11">
-        <v>0.5273696860885325</v>
+        <v>0.52736968608853252</v>
       </c>
       <c r="E11">
-        <v>7.519</v>
+        <v>7.5190000000000001</v>
       </c>
       <c r="F11" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>7</v>
       </c>
       <c r="B12">
-        <v>77.40177716950527</v>
+        <v>77.401777169505266</v>
       </c>
       <c r="C12">
-        <v>94.89990477471247</v>
+        <v>94.899904774712468</v>
       </c>
       <c r="D12">
-        <v>0.196934741663286</v>
+        <v>0.19693474166328601</v>
       </c>
       <c r="E12">
-        <v>35.547</v>
+        <v>35.546999999999997</v>
       </c>
       <c r="F12" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>8</v>
       </c>
@@ -764,30 +785,30 @@
         <v>114.877200729927</v>
       </c>
       <c r="C13">
-        <v>142.2743512209715</v>
+        <v>142.27435122097151</v>
       </c>
       <c r="D13">
-        <v>0.4639618062030463</v>
+        <v>0.46396180620304628</v>
       </c>
       <c r="E13">
-        <v>24.118</v>
+        <v>24.117999999999999</v>
       </c>
       <c r="F13" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>7</v>
       </c>
       <c r="B14">
-        <v>82.13521101173841</v>
+        <v>82.135211011738406</v>
       </c>
       <c r="C14">
-        <v>96.55758501419635</v>
+        <v>96.557585014196349</v>
       </c>
       <c r="D14">
-        <v>0.1491770259887769</v>
+        <v>0.14917702598877691</v>
       </c>
       <c r="E14">
         <v>25.474</v>
@@ -796,7 +817,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>8</v>
       </c>
@@ -807,7 +828,7 @@
         <v>137.1639466392626</v>
       </c>
       <c r="D15">
-        <v>0.3677895920783507</v>
+        <v>0.36778959207835071</v>
       </c>
       <c r="E15">
         <v>13.734</v>
@@ -816,7 +837,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>7</v>
       </c>
@@ -824,30 +845,30 @@
         <v>82.58058056192661</v>
       </c>
       <c r="C16">
-        <v>96.61798341045024</v>
+        <v>96.617983410450236</v>
       </c>
       <c r="D16">
         <v>0.1099376916902529</v>
       </c>
       <c r="E16">
-        <v>21.127</v>
+        <v>21.126999999999999</v>
       </c>
       <c r="F16" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>8</v>
       </c>
       <c r="B17">
-        <v>104.4763130733945</v>
+        <v>104.47631307339449</v>
       </c>
       <c r="C17">
-        <v>137.8926470897426</v>
+        <v>137.89264708974261</v>
       </c>
       <c r="D17">
-        <v>0.3860758697385662</v>
+        <v>0.38607586973856622</v>
       </c>
       <c r="E17">
         <v>13.272</v>
@@ -856,7 +877,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>9</v>
       </c>
@@ -864,10 +885,10 @@
         <v>142.5652623421874</v>
       </c>
       <c r="C18">
-        <v>193.3509243094261</v>
+        <v>193.35092430942609</v>
       </c>
       <c r="D18">
-        <v>0.09402648123440444</v>
+        <v>9.4026481234404435E-2</v>
       </c>
       <c r="E18">
         <v>11.439</v>
@@ -876,7 +897,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>9</v>
       </c>
@@ -884,10 +905,10 @@
         <v>142.5652623421874</v>
       </c>
       <c r="C19">
-        <v>193.3509243094261</v>
+        <v>193.35092430942609</v>
       </c>
       <c r="D19">
-        <v>0.09402648123440444</v>
+        <v>9.4026481234404435E-2</v>
       </c>
       <c r="E19">
         <v>11.205</v>
@@ -896,7 +917,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>10</v>
       </c>
@@ -904,50 +925,50 @@
         <v>193.2572867786366</v>
       </c>
       <c r="C20">
-        <v>239.0853151119256</v>
+        <v>239.08531511192561</v>
       </c>
       <c r="D20">
-        <v>0.4411976737744193</v>
+        <v>0.44119767377441932</v>
       </c>
       <c r="E20">
-        <v>1.771</v>
+        <v>1.7709999999999999</v>
       </c>
       <c r="F20" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>9</v>
       </c>
       <c r="B21">
-        <v>88.6875876151953</v>
+        <v>88.687587615195298</v>
       </c>
       <c r="C21">
         <v>104.7579724156774</v>
       </c>
       <c r="D21">
-        <v>0.1155195484435279</v>
+        <v>0.11551954844352789</v>
       </c>
       <c r="E21">
-        <v>34.275</v>
+        <v>34.274999999999999</v>
       </c>
       <c r="F21" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>10</v>
       </c>
       <c r="B22">
-        <v>119.551082852898</v>
+        <v>119.55108285289801</v>
       </c>
       <c r="C22">
-        <v>149.8834094617166</v>
+        <v>149.88340946171661</v>
       </c>
       <c r="D22">
-        <v>0.3957287582570775</v>
+        <v>0.39572875825707748</v>
       </c>
       <c r="E22">
         <v>3.448</v>
@@ -956,27 +977,27 @@
         <v>29</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>9</v>
       </c>
       <c r="B23">
-        <v>82.58949739013596</v>
+        <v>82.589497390135961</v>
       </c>
       <c r="C23">
-        <v>97.54163620972544</v>
+        <v>97.541636209725439</v>
       </c>
       <c r="D23">
         <v>0.1306815400807084</v>
       </c>
       <c r="E23">
-        <v>23.751</v>
+        <v>23.751000000000001</v>
       </c>
       <c r="F23" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>10</v>
       </c>
@@ -984,10 +1005,10 @@
         <v>111.3737756367571</v>
       </c>
       <c r="C24">
-        <v>148.4938447188609</v>
+        <v>148.49384471886091</v>
       </c>
       <c r="D24">
-        <v>0.1617992112704635</v>
+        <v>0.16179921127046351</v>
       </c>
       <c r="E24">
         <v>2.169</v>
@@ -996,38 +1017,38 @@
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>9</v>
       </c>
       <c r="B25">
-        <v>84.29221882817056</v>
+        <v>84.292218828170562</v>
       </c>
       <c r="C25">
-        <v>98.517209100656</v>
+        <v>98.517209100656004</v>
       </c>
       <c r="D25">
-        <v>0.02895609373731908</v>
+        <v>2.895609373731908E-2</v>
       </c>
       <c r="E25">
-        <v>23.867</v>
+        <v>23.867000000000001</v>
       </c>
       <c r="F25" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>10</v>
       </c>
       <c r="B26">
-        <v>107.4809678533691</v>
+        <v>107.48096785336909</v>
       </c>
       <c r="C26">
-        <v>140.2563471627074</v>
+        <v>140.25634716270741</v>
       </c>
       <c r="D26">
-        <v>0.3023270671307893</v>
+        <v>0.30232706713078927</v>
       </c>
       <c r="E26">
         <v>2.246</v>
@@ -1036,7 +1057,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>11</v>
       </c>
@@ -1044,19 +1065,19 @@
         <v>108.2767599687256</v>
       </c>
       <c r="C27">
-        <v>133.103927864226</v>
+        <v>133.10392786422599</v>
       </c>
       <c r="D27">
-        <v>0.2439674734225541</v>
+        <v>0.24396747342255409</v>
       </c>
       <c r="E27">
-        <v>609.683</v>
+        <v>609.68299999999999</v>
       </c>
       <c r="F27" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>11</v>
       </c>
@@ -1064,10 +1085,10 @@
         <v>177.6825473025801</v>
       </c>
       <c r="C28">
-        <v>221.4210969730611</v>
+        <v>221.42109697306111</v>
       </c>
       <c r="D28">
-        <v>0.5423670542897419</v>
+        <v>0.54236705428974186</v>
       </c>
       <c r="E28">
         <v>441.77</v>
@@ -1076,18 +1097,18 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>11</v>
       </c>
       <c r="B29">
-        <v>78.2374509326845</v>
+        <v>78.237450932684496</v>
       </c>
       <c r="C29">
-        <v>95.55504979620677</v>
+        <v>95.555049796206774</v>
       </c>
       <c r="D29">
-        <v>0.1742331950418345</v>
+        <v>0.17423319504183449</v>
       </c>
       <c r="E29">
         <v>1328.309</v>
@@ -1096,7 +1117,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>11</v>
       </c>
@@ -1107,36 +1128,36 @@
         <v>136.5963779207699</v>
       </c>
       <c r="D30">
-        <v>0.4955065482540177</v>
+        <v>0.49550654825401769</v>
       </c>
       <c r="E30">
-        <v>1268.388</v>
+        <v>1268.3879999999999</v>
       </c>
       <c r="F30" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>11</v>
       </c>
       <c r="B31">
-        <v>82.13635774175518</v>
+        <v>82.136357741755177</v>
       </c>
       <c r="C31">
-        <v>96.62739922345345</v>
+        <v>96.627399223453452</v>
       </c>
       <c r="D31">
-        <v>0.1498899614054836</v>
+        <v>0.14988996140548361</v>
       </c>
       <c r="E31">
-        <v>892.593</v>
+        <v>892.59299999999996</v>
       </c>
       <c r="F31" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>11</v>
       </c>
@@ -1144,10 +1165,10 @@
         <v>107.4078300726663</v>
       </c>
       <c r="C32">
-        <v>136.4462473105567</v>
+        <v>136.44624731055671</v>
       </c>
       <c r="D32">
-        <v>0.3448120882042224</v>
+        <v>0.34481208820422238</v>
       </c>
       <c r="E32">
         <v>851.51</v>
@@ -1156,7 +1177,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>11</v>
       </c>
@@ -1164,19 +1185,19 @@
         <v>82.31022935779815</v>
       </c>
       <c r="C33">
-        <v>96.35574908358461</v>
+        <v>96.355749083584612</v>
       </c>
       <c r="D33">
-        <v>0.1301624113777363</v>
+        <v>0.13016241137773629</v>
       </c>
       <c r="E33">
-        <v>802.207</v>
+        <v>802.20699999999999</v>
       </c>
       <c r="F33" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>11</v>
       </c>
@@ -1184,110 +1205,110 @@
         <v>105.4674357798165</v>
       </c>
       <c r="C34">
-        <v>135.4714609597659</v>
+        <v>135.47146095976589</v>
       </c>
       <c r="D34">
-        <v>0.3815717810755118</v>
+        <v>0.38157178107551182</v>
       </c>
       <c r="E34">
-        <v>763.881</v>
+        <v>763.88099999999997</v>
       </c>
       <c r="F34" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>12</v>
       </c>
       <c r="B35">
-        <v>133.7089090370034</v>
+        <v>133.70890903700339</v>
       </c>
       <c r="C35">
         <v>168.9641799406613</v>
       </c>
       <c r="D35">
-        <v>-0.01168849843694177</v>
+        <v>-1.168849843694177E-2</v>
       </c>
       <c r="E35">
-        <v>0.478</v>
+        <v>0.47799999999999998</v>
       </c>
       <c r="F35" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>13</v>
       </c>
       <c r="B36">
-        <v>221.1149335418295</v>
+        <v>221.11493354182949</v>
       </c>
       <c r="C36">
-        <v>272.2348828962863</v>
+        <v>272.23488289628631</v>
       </c>
       <c r="D36">
-        <v>0.2793407309149463</v>
+        <v>0.27934073091494632</v>
       </c>
       <c r="E36">
-        <v>0.135</v>
+        <v>0.13500000000000001</v>
       </c>
       <c r="F36" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>12</v>
       </c>
       <c r="B37">
-        <v>95.565813092524</v>
+        <v>95.565813092523996</v>
       </c>
       <c r="C37">
         <v>120.1139826765873</v>
       </c>
       <c r="D37">
-        <v>-0.001899400786283758</v>
+        <v>-1.899400786283758E-3</v>
       </c>
       <c r="E37">
-        <v>0.181</v>
+        <v>0.18099999999999999</v>
       </c>
       <c r="F37" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>13</v>
       </c>
       <c r="B38">
-        <v>129.5312246553123</v>
+        <v>129.53122465531229</v>
       </c>
       <c r="C38">
-        <v>162.9118760397184</v>
+        <v>162.91187603971841</v>
       </c>
       <c r="D38">
-        <v>0.2896412616245618</v>
+        <v>0.28964126162456177</v>
       </c>
       <c r="E38">
-        <v>0.288</v>
+        <v>0.28799999999999998</v>
       </c>
       <c r="F38" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>12</v>
       </c>
       <c r="B39">
-        <v>97.33909648712661</v>
+        <v>97.339096487126611</v>
       </c>
       <c r="C39">
         <v>119.402582193589</v>
       </c>
       <c r="D39">
-        <v>0.005159687431444075</v>
+        <v>5.1596874314440754E-3</v>
       </c>
       <c r="E39">
         <v>0.158</v>
@@ -1296,7 +1317,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>13</v>
       </c>
@@ -1304,30 +1325,30 @@
         <v>121.5790944661822</v>
       </c>
       <c r="C40">
-        <v>154.9748594704444</v>
+        <v>154.97485947044439</v>
       </c>
       <c r="D40">
-        <v>0.1922962664094021</v>
+        <v>0.19229626640940209</v>
       </c>
       <c r="E40">
-        <v>0.145</v>
+        <v>0.14499999999999999</v>
       </c>
       <c r="F40" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>12</v>
       </c>
       <c r="B41">
-        <v>95.92113104853699</v>
+        <v>95.921131048536992</v>
       </c>
       <c r="C41">
-        <v>117.6281179688822</v>
+        <v>117.62811796888219</v>
       </c>
       <c r="D41">
-        <v>0.03673457522049366</v>
+        <v>3.6734575220493657E-2</v>
       </c>
       <c r="E41">
         <v>0.16</v>
@@ -1336,7 +1357,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>13</v>
       </c>
@@ -1344,96 +1365,96 @@
         <v>122.6309250764526</v>
       </c>
       <c r="C42">
-        <v>157.4658492901256</v>
+        <v>157.46584929012559</v>
       </c>
       <c r="D42">
-        <v>0.2102768669583132</v>
+        <v>0.21027686695831321</v>
       </c>
       <c r="E42">
-        <v>0.163</v>
+        <v>0.16300000000000001</v>
       </c>
       <c r="F42" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>14</v>
       </c>
       <c r="B43">
-        <v>108.1265745808357</v>
+        <v>108.12657458083569</v>
       </c>
       <c r="C43">
-        <v>141.6529149920891</v>
+        <v>141.65291499208911</v>
       </c>
       <c r="E43">
-        <v>4.502</v>
+        <v>4.5019999999999998</v>
       </c>
       <c r="F43" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>14</v>
       </c>
       <c r="B44">
-        <v>224.492744331509</v>
+        <v>224.49274433150899</v>
       </c>
       <c r="C44">
-        <v>263.4679916847147</v>
+        <v>263.46799168471472</v>
       </c>
       <c r="D44">
-        <v>4.993194067034013e-17</v>
+        <v>4.9931940670340132E-17</v>
       </c>
       <c r="E44">
-        <v>5.053</v>
+        <v>5.0529999999999999</v>
       </c>
       <c r="F44" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>14</v>
       </c>
       <c r="B45">
-        <v>77.80384428257317</v>
+        <v>77.803844282573166</v>
       </c>
       <c r="C45">
         <v>98.04976392193548</v>
       </c>
       <c r="D45">
-        <v>-0.04655159831481384</v>
+        <v>-4.6551598314813841E-2</v>
       </c>
       <c r="E45">
-        <v>16.371</v>
+        <v>16.370999999999999</v>
       </c>
       <c r="F45" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>14</v>
       </c>
       <c r="B46">
-        <v>128.0990754254385</v>
+        <v>128.09907542543851</v>
       </c>
       <c r="C46">
         <v>157.2561459739556</v>
       </c>
       <c r="D46">
-        <v>0.0133068493096273</v>
+        <v>1.33068493096273E-2</v>
       </c>
       <c r="E46">
-        <v>16.042</v>
+        <v>16.042000000000002</v>
       </c>
       <c r="F46" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>14</v>
       </c>
@@ -1441,19 +1462,19 @@
         <v>83.55472330910257</v>
       </c>
       <c r="C47">
-        <v>97.61369303921067</v>
+        <v>97.613693039210673</v>
       </c>
       <c r="D47">
-        <v>0.00316527595184076</v>
+        <v>3.1652759518407598E-3</v>
       </c>
       <c r="E47">
-        <v>6.731</v>
+        <v>6.7309999999999999</v>
       </c>
       <c r="F47" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>14</v>
       </c>
@@ -1461,39 +1482,39 @@
         <v>111.496710053493</v>
       </c>
       <c r="C48">
-        <v>145.7352661226745</v>
+        <v>145.73526612267449</v>
       </c>
       <c r="D48">
-        <v>0.0007482165497200133</v>
+        <v>7.4821654972001333E-4</v>
       </c>
       <c r="E48">
-        <v>6.693</v>
+        <v>6.6929999999999996</v>
       </c>
       <c r="F48" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>14</v>
       </c>
       <c r="B49">
-        <v>82.82359518349037</v>
+        <v>82.823595183490369</v>
       </c>
       <c r="C49">
-        <v>97.19757749605427</v>
+        <v>97.197577496054265</v>
       </c>
       <c r="D49">
-        <v>-0.01473657296710539</v>
+        <v>-1.473657296710539E-2</v>
       </c>
       <c r="E49">
-        <v>6.398</v>
+        <v>6.3979999999999997</v>
       </c>
       <c r="F49" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>14</v>
       </c>
@@ -1501,483 +1522,323 @@
         <v>111.1142201834821</v>
       </c>
       <c r="C50">
-        <v>147.9376379839132</v>
+        <v>147.93763798391319</v>
       </c>
       <c r="D50">
-        <v>0.01381398375215726</v>
+        <v>1.381398375215726E-2</v>
       </c>
       <c r="E50">
-        <v>6.553</v>
+        <v>6.5529999999999999</v>
       </c>
       <c r="F50" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B51">
-        <v>133.7089090370034</v>
+        <v>162.00408408258559</v>
       </c>
       <c r="C51">
-        <v>168.9641799406613</v>
+        <v>203.8771895995086</v>
       </c>
       <c r="D51">
-        <v>-0.01168849843694177</v>
+        <v>7.5523338620036476E-2</v>
       </c>
       <c r="E51">
-        <v>0.137</v>
+        <v>0.68600000000000005</v>
       </c>
       <c r="F51" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B52">
-        <v>221.1149335418295</v>
+        <v>181.04954335295429</v>
       </c>
       <c r="C52">
-        <v>272.2348828962863</v>
+        <v>229.60510346516901</v>
       </c>
       <c r="D52">
-        <v>0.2793407309149463</v>
+        <v>0.49874498136404682</v>
       </c>
       <c r="E52">
-        <v>0.144</v>
+        <v>0.51500000000000001</v>
       </c>
       <c r="F52" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B53">
-        <v>95.565813092524</v>
+        <v>188.65849702674049</v>
       </c>
       <c r="C53">
-        <v>120.1139826765873</v>
+        <v>246.81092767672851</v>
       </c>
       <c r="D53">
-        <v>-0.001899400786283758</v>
+        <v>-2.9585572761396482E-2</v>
       </c>
       <c r="E53">
-        <v>0.182</v>
+        <v>0.96899999999999997</v>
       </c>
       <c r="F53" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="54" spans="1:6">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B54">
-        <v>129.5312246553123</v>
+        <v>111.2534249314224</v>
       </c>
       <c r="C54">
-        <v>162.9118760397184</v>
+        <v>138.83205646273191</v>
       </c>
       <c r="D54">
-        <v>0.2896412616245618</v>
+        <v>0.47009801981888161</v>
       </c>
       <c r="E54">
-        <v>0.302</v>
+        <v>1.0529999999999999</v>
       </c>
       <c r="F54" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="55" spans="1:6">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B55">
-        <v>97.33909648712661</v>
+        <v>160.66190651737881</v>
       </c>
       <c r="C55">
-        <v>119.402582193589</v>
+        <v>217.83293089247559</v>
       </c>
       <c r="D55">
-        <v>0.005159687431444075</v>
+        <v>3.8677027072878727E-2</v>
       </c>
       <c r="E55">
-        <v>0.169</v>
+        <v>0.78</v>
       </c>
       <c r="F55" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="56" spans="1:6">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B56">
-        <v>121.5790944661822</v>
+        <v>107.4913766131065</v>
       </c>
       <c r="C56">
-        <v>154.9748594704444</v>
+        <v>136.9015318610281</v>
       </c>
       <c r="D56">
-        <v>0.1922962664094021</v>
+        <v>0.33384788563451939</v>
       </c>
       <c r="E56">
-        <v>0.165</v>
+        <v>0.81299999999999994</v>
       </c>
       <c r="F56" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="57" spans="1:6">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B57">
-        <v>95.92113104853699</v>
+        <v>231.7645182599025</v>
       </c>
       <c r="C57">
-        <v>117.6281179688822</v>
+        <v>2517.1341240950328</v>
       </c>
       <c r="D57">
-        <v>0.03673457522049366</v>
+        <v>-1.9060973969911101E-2</v>
       </c>
       <c r="E57">
-        <v>0.169</v>
+        <v>0.57299999999999995</v>
       </c>
       <c r="F57" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="58" spans="1:6">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B58">
-        <v>122.6309250764526</v>
+        <v>113.8696466351545</v>
       </c>
       <c r="C58">
-        <v>157.4658492901256</v>
+        <v>417.1690030547619</v>
       </c>
       <c r="D58">
-        <v>0.2102768669583132</v>
+        <v>3.326433876064689E-2</v>
       </c>
       <c r="E58">
-        <v>0.156</v>
+        <v>0.64300000000000002</v>
       </c>
       <c r="F58" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="59" spans="1:6">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B59">
-        <v>162.0040840825856</v>
+        <v>1858.638389366693</v>
       </c>
       <c r="C59">
-        <v>203.8771895995086</v>
-      </c>
-      <c r="D59">
-        <v>0.07552333862003648</v>
+        <v>1863.6748861102519</v>
       </c>
       <c r="E59">
-        <v>0.6860000000000001</v>
+        <v>0.216</v>
       </c>
       <c r="F59" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="60" spans="1:6">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B60">
-        <v>181.0495433529543</v>
+        <v>533.07467133445232</v>
       </c>
       <c r="C60">
-        <v>229.605103465169</v>
+        <v>668.5925779114242</v>
       </c>
       <c r="D60">
-        <v>0.4987449813640468</v>
+        <v>0.1175238276591988</v>
       </c>
       <c r="E60">
-        <v>0.515</v>
+        <v>1.27</v>
       </c>
       <c r="F60" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="61" spans="1:6">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B61">
-        <v>188.6584970267405</v>
+        <v>2493.2287104622869</v>
       </c>
       <c r="C61">
-        <v>246.8109276767285</v>
-      </c>
-      <c r="D61">
-        <v>-0.02958557276139648</v>
+        <v>2495.1048393132978</v>
       </c>
       <c r="E61">
-        <v>0.969</v>
+        <v>0.31900000000000001</v>
       </c>
       <c r="F61" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="62" spans="1:6">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B62">
-        <v>111.2534249314224</v>
+        <v>293.33108105895388</v>
       </c>
       <c r="C62">
-        <v>138.8320564627319</v>
+        <v>367.95626806624318</v>
       </c>
       <c r="D62">
-        <v>0.4700980198188816</v>
+        <v>0.1099147808442457</v>
       </c>
       <c r="E62">
-        <v>1.053</v>
+        <v>2.117</v>
       </c>
       <c r="F62" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="63" spans="1:6">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B63">
-        <v>160.6619065173788</v>
+        <v>2201.437954164337</v>
       </c>
       <c r="C63">
-        <v>217.8329308924756</v>
-      </c>
-      <c r="D63">
-        <v>0.03867702707287873</v>
+        <v>2203.600736105418</v>
       </c>
       <c r="E63">
-        <v>0.78</v>
+        <v>0.22500000000000001</v>
       </c>
       <c r="F63" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="64" spans="1:6">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B64">
-        <v>107.4913766131065</v>
+        <v>285.46661905472081</v>
       </c>
       <c r="C64">
-        <v>136.9015318610281</v>
+        <v>364.52203750598989</v>
       </c>
       <c r="D64">
-        <v>0.3338478856345194</v>
+        <v>6.6429666003105167E-2</v>
       </c>
       <c r="E64">
-        <v>0.8129999999999999</v>
+        <v>1.383</v>
       </c>
       <c r="F64" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="65" spans="1:6">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B65">
-        <v>231.7645182599025</v>
+        <v>2210.196674311926</v>
       </c>
       <c r="C65">
-        <v>2517.134124095033</v>
-      </c>
-      <c r="D65">
-        <v>-0.0190609739699111</v>
+        <v>2212.3254494977482</v>
       </c>
       <c r="E65">
-        <v>0.573</v>
+        <v>0.217</v>
       </c>
       <c r="F65" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="66" spans="1:6">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B66">
-        <v>113.8696466351545</v>
+        <v>315.06073729365789</v>
       </c>
       <c r="C66">
-        <v>417.1690030547619</v>
+        <v>394.86294001369572</v>
       </c>
       <c r="D66">
-        <v>0.03326433876064689</v>
+        <v>6.7959554351634602E-2</v>
       </c>
       <c r="E66">
-        <v>0.643</v>
+        <v>1.768</v>
       </c>
       <c r="F66" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
-      <c r="A67" t="s">
-        <v>17</v>
-      </c>
-      <c r="B67">
-        <v>1858.638389366693</v>
-      </c>
-      <c r="C67">
-        <v>1863.674886110252</v>
-      </c>
-      <c r="E67">
-        <v>0.216</v>
-      </c>
-      <c r="F67" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
-      <c r="A68" t="s">
-        <v>18</v>
-      </c>
-      <c r="B68">
-        <v>533.0746713344523</v>
-      </c>
-      <c r="C68">
-        <v>668.5925779114242</v>
-      </c>
-      <c r="D68">
-        <v>0.1175238276591988</v>
-      </c>
-      <c r="E68">
-        <v>1.27</v>
-      </c>
-      <c r="F68" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
-      <c r="A69" t="s">
-        <v>17</v>
-      </c>
-      <c r="B69">
-        <v>2493.228710462287</v>
-      </c>
-      <c r="C69">
-        <v>2495.104839313298</v>
-      </c>
-      <c r="E69">
-        <v>0.319</v>
-      </c>
-      <c r="F69" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
-      <c r="A70" t="s">
-        <v>18</v>
-      </c>
-      <c r="B70">
-        <v>293.3310810589539</v>
-      </c>
-      <c r="C70">
-        <v>367.9562680662432</v>
-      </c>
-      <c r="D70">
-        <v>0.1099147808442457</v>
-      </c>
-      <c r="E70">
-        <v>2.117</v>
-      </c>
-      <c r="F70" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6">
-      <c r="A71" t="s">
-        <v>17</v>
-      </c>
-      <c r="B71">
-        <v>2201.437954164337</v>
-      </c>
-      <c r="C71">
-        <v>2203.600736105418</v>
-      </c>
-      <c r="E71">
-        <v>0.225</v>
-      </c>
-      <c r="F71" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
-      <c r="A72" t="s">
-        <v>18</v>
-      </c>
-      <c r="B72">
-        <v>285.4666190547208</v>
-      </c>
-      <c r="C72">
-        <v>364.5220375059899</v>
-      </c>
-      <c r="D72">
-        <v>0.06642966600310517</v>
-      </c>
-      <c r="E72">
-        <v>1.383</v>
-      </c>
-      <c r="F72" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
-      <c r="A73" t="s">
-        <v>17</v>
-      </c>
-      <c r="B73">
-        <v>2210.196674311926</v>
-      </c>
-      <c r="C73">
-        <v>2212.325449497748</v>
-      </c>
-      <c r="E73">
-        <v>0.217</v>
-      </c>
-      <c r="F73" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
-      <c r="A74" t="s">
-        <v>18</v>
-      </c>
-      <c r="B74">
-        <v>315.0607372936579</v>
-      </c>
-      <c r="C74">
-        <v>394.8629400136957</v>
-      </c>
-      <c r="D74">
-        <v>0.0679595543516346</v>
-      </c>
-      <c r="E74">
-        <v>1.768</v>
-      </c>
-      <c r="F74" t="s">
         <v>31</v>
       </c>
     </row>

--- a/models/class_results.xlsx
+++ b/models/class_results.xlsx
@@ -1,25 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\PredictingRatings\models\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="35">
   <si>
     <t>Модель</t>
   </si>
@@ -118,6 +113,58 @@
              subsample=0.2)</t>
   </si>
   <si>
+    <t>VotingRegressor(estimators=[('rf_vt',
+                             RandomForestRegressor(bootstrap=False,
+                                                   criterion='mae',
+                                                   max_depth=None,
+                                                   max_features=2,
+                                                   max_leaf_nodes=None,
+                                                   min_impurity_decrease=0.0,
+                                                   min_impurity_split=None,
+                                                   min_samples_leaf=1,
+                                                   min_samples_split=5,
+                                                   min_weight_fraction_leaf=0.0,
+                                                   n_estimators=200, n_jobs=-1,
+                                                   oob_score=False,
+                                                   random_state=4, verbose=0,
+                                                   warm_start=False)),
+                            ('svr_vt',
+                             SVR(C=1.0, cache_size=200, coef0=0.0, degree=3,
+                                 epsilon=0.1, gamma='auto', kernel='rbf',
+                                 max_iter=-1, shrinking=True, tol=0.001,
+                                 verbose=False)),
+                            ('lr_vt',
+                             LinearRegression(copy_X=True, fit_intercept=True,
+                                              n_jobs=None, normalize=False))],
+                n_jobs=-1, weights=None)</t>
+  </si>
+  <si>
+    <t>VotingRegressor(estimators=[('rf_vt',
+                             RandomForestRegressor(bootstrap=True,
+                                                   criterion='mae',
+                                                   max_depth=None,
+                                                   max_features=1,
+                                                   max_leaf_nodes=None,
+                                                   min_impurity_decrease=0.0,
+                                                   min_impurity_split=None,
+                                                   min_samples_leaf=5,
+                                                   min_samples_split=25,
+                                                   min_weight_fraction_leaf=0.0,
+                                                   n_estimators=500, n_jobs=-1,
+                                                   oob_score=True,
+                                                   random_state=4, verbose=0,
+                                                   warm_start=False)),
+                            ('svr_vt',
+                             SVR(C=1.0, cache_size=200, coef0=0.0, degree=3,
+                                 epsilon=0.1, gamma='auto', kernel='rbf',
+                                 max_iter=-1, shrinking=True, tol=0.001,
+                                 verbose=False)),
+                            ('lr_vt',
+                             LinearRegression(copy_X=True, fit_intercept=True,
+                                              n_jobs=None, normalize=False))],
+                n_jobs=-1, weights=None)</t>
+  </si>
+  <si>
     <t>Обучение на среднем ЭЛО по кластеру 1</t>
   </si>
   <si>
@@ -163,8 +210,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -223,25 +270,17 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -279,9 +318,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -313,10 +352,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -348,10 +386,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -524,20 +561,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F66"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="I73" sqref="I73"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="21.140625" customWidth="1"/>
-    <col min="2" max="2" width="22.42578125" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -557,7 +588,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -565,99 +596,99 @@
         <v>102.9807772127814</v>
       </c>
       <c r="C2">
-        <v>129.00268384462549</v>
+        <v>129.0026838446255</v>
       </c>
       <c r="D2">
-        <v>0.31018912359859019</v>
+        <v>0.3101891235985902</v>
       </c>
       <c r="E2">
-        <v>2.5999999999999999E-2</v>
+        <v>0.026</v>
       </c>
       <c r="F2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>6</v>
       </c>
       <c r="B3">
-        <v>173.67681649218471</v>
+        <v>173.6768164921847</v>
       </c>
       <c r="C3">
-        <v>218.06100471708831</v>
+        <v>218.0610047170883</v>
       </c>
       <c r="D3">
-        <v>0.56491732842075482</v>
+        <v>0.5649173284207548</v>
       </c>
       <c r="E3">
-        <v>3.2000000000000001E-2</v>
+        <v>0.032</v>
       </c>
       <c r="F3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>6</v>
       </c>
       <c r="B4">
-        <v>77.387125590970015</v>
+        <v>77.38712559097002</v>
       </c>
       <c r="C4">
-        <v>95.797567537992805</v>
+        <v>95.7975675379928</v>
       </c>
       <c r="D4">
-        <v>0.21757254372426749</v>
+        <v>0.2175725437242675</v>
       </c>
       <c r="E4">
         <v>0.04</v>
       </c>
       <c r="F4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>6</v>
       </c>
       <c r="B5">
-        <v>108.60862504062069</v>
+        <v>108.6086250406207</v>
       </c>
       <c r="C5">
         <v>135.8539818808093</v>
       </c>
       <c r="D5">
-        <v>0.50158855802254554</v>
+        <v>0.5015885580225455</v>
       </c>
       <c r="E5">
-        <v>3.9E-2</v>
+        <v>0.039</v>
       </c>
       <c r="F5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
         <v>6</v>
       </c>
       <c r="B6">
-        <v>80.616755079217953</v>
+        <v>80.61675507921795</v>
       </c>
       <c r="C6">
         <v>94.97498995796164</v>
       </c>
       <c r="D6">
-        <v>0.23781290559448021</v>
+        <v>0.2378129055944802</v>
       </c>
       <c r="E6">
         <v>0.04</v>
       </c>
       <c r="F6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -665,39 +696,39 @@
         <v>102.869006477094</v>
       </c>
       <c r="C7">
-        <v>132.82701043354481</v>
+        <v>132.8270104335448</v>
       </c>
       <c r="D7">
-        <v>0.39010949013476548</v>
+        <v>0.3901094901347655</v>
       </c>
       <c r="E7">
-        <v>2.8000000000000001E-2</v>
+        <v>0.028</v>
       </c>
       <c r="F7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>80.319817884448142</v>
+        <v>80.31981788444814</v>
       </c>
       <c r="C8">
-        <v>94.829940595070667</v>
+        <v>94.82994059507067</v>
       </c>
       <c r="D8">
         <v>0.2286830746748991</v>
       </c>
       <c r="E8">
-        <v>2.8000000000000001E-2</v>
+        <v>0.028</v>
       </c>
       <c r="F8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -708,16 +739,16 @@
         <v>134.6304044763221</v>
       </c>
       <c r="D9">
-        <v>0.40487956316118962</v>
+        <v>0.4048795631611896</v>
       </c>
       <c r="E9">
-        <v>3.6999999999999998E-2</v>
+        <v>0.037</v>
       </c>
       <c r="F9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -725,19 +756,19 @@
         <v>106.9246012509773</v>
       </c>
       <c r="C10">
-        <v>132.04295193666101</v>
+        <v>132.042951936661</v>
       </c>
       <c r="D10">
-        <v>0.26952578325156129</v>
+        <v>0.2695257832515613</v>
       </c>
       <c r="E10">
-        <v>15.507999999999999</v>
+        <v>15.508</v>
       </c>
       <c r="F10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -748,36 +779,36 @@
         <v>229.3154734519922</v>
       </c>
       <c r="D11">
-        <v>0.52736968608853252</v>
+        <v>0.5273696860885325</v>
       </c>
       <c r="E11">
-        <v>7.5190000000000001</v>
+        <v>7.519</v>
       </c>
       <c r="F11" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" t="s">
         <v>7</v>
       </c>
       <c r="B12">
-        <v>77.401777169505266</v>
+        <v>77.40177716950527</v>
       </c>
       <c r="C12">
-        <v>94.899904774712468</v>
+        <v>94.89990477471247</v>
       </c>
       <c r="D12">
-        <v>0.19693474166328601</v>
+        <v>0.196934741663286</v>
       </c>
       <c r="E12">
-        <v>35.546999999999997</v>
+        <v>35.547</v>
       </c>
       <c r="F12" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" t="s">
         <v>8</v>
       </c>
@@ -785,39 +816,39 @@
         <v>114.877200729927</v>
       </c>
       <c r="C13">
-        <v>142.27435122097151</v>
+        <v>142.2743512209715</v>
       </c>
       <c r="D13">
-        <v>0.46396180620304628</v>
+        <v>0.4639618062030463</v>
       </c>
       <c r="E13">
-        <v>24.117999999999999</v>
+        <v>24.118</v>
       </c>
       <c r="F13" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" t="s">
         <v>7</v>
       </c>
       <c r="B14">
-        <v>82.135211011738406</v>
+        <v>82.13521101173841</v>
       </c>
       <c r="C14">
-        <v>96.557585014196349</v>
+        <v>96.55758501419635</v>
       </c>
       <c r="D14">
-        <v>0.14917702598877691</v>
+        <v>0.1491770259887769</v>
       </c>
       <c r="E14">
         <v>25.474</v>
       </c>
       <c r="F14" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" t="s">
         <v>8</v>
       </c>
@@ -828,16 +859,16 @@
         <v>137.1639466392626</v>
       </c>
       <c r="D15">
-        <v>0.36778959207835071</v>
+        <v>0.3677895920783507</v>
       </c>
       <c r="E15">
         <v>13.734</v>
       </c>
       <c r="F15" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" t="s">
         <v>7</v>
       </c>
@@ -845,39 +876,39 @@
         <v>82.58058056192661</v>
       </c>
       <c r="C16">
-        <v>96.617983410450236</v>
+        <v>96.61798341045024</v>
       </c>
       <c r="D16">
         <v>0.1099376916902529</v>
       </c>
       <c r="E16">
-        <v>21.126999999999999</v>
+        <v>21.127</v>
       </c>
       <c r="F16" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" t="s">
         <v>8</v>
       </c>
       <c r="B17">
-        <v>104.47631307339449</v>
+        <v>104.4763130733945</v>
       </c>
       <c r="C17">
-        <v>137.89264708974261</v>
+        <v>137.8926470897426</v>
       </c>
       <c r="D17">
-        <v>0.38607586973856622</v>
+        <v>0.3860758697385662</v>
       </c>
       <c r="E17">
         <v>13.272</v>
       </c>
       <c r="F17" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" t="s">
         <v>9</v>
       </c>
@@ -885,19 +916,19 @@
         <v>142.5652623421874</v>
       </c>
       <c r="C18">
-        <v>193.35092430942609</v>
+        <v>193.3509243094261</v>
       </c>
       <c r="D18">
-        <v>9.4026481234404435E-2</v>
+        <v>0.09402648123440444</v>
       </c>
       <c r="E18">
         <v>11.439</v>
       </c>
       <c r="F18" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" t="s">
         <v>9</v>
       </c>
@@ -905,19 +936,19 @@
         <v>142.5652623421874</v>
       </c>
       <c r="C19">
-        <v>193.35092430942609</v>
+        <v>193.3509243094261</v>
       </c>
       <c r="D19">
-        <v>9.4026481234404435E-2</v>
+        <v>0.09402648123440444</v>
       </c>
       <c r="E19">
         <v>11.205</v>
       </c>
       <c r="F19" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" t="s">
         <v>10</v>
       </c>
@@ -925,79 +956,79 @@
         <v>193.2572867786366</v>
       </c>
       <c r="C20">
-        <v>239.08531511192561</v>
+        <v>239.0853151119256</v>
       </c>
       <c r="D20">
-        <v>0.44119767377441932</v>
+        <v>0.4411976737744193</v>
       </c>
       <c r="E20">
-        <v>1.7709999999999999</v>
+        <v>1.771</v>
       </c>
       <c r="F20" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" t="s">
         <v>9</v>
       </c>
       <c r="B21">
-        <v>88.687587615195298</v>
+        <v>88.6875876151953</v>
       </c>
       <c r="C21">
         <v>104.7579724156774</v>
       </c>
       <c r="D21">
-        <v>0.11551954844352789</v>
+        <v>0.1155195484435279</v>
       </c>
       <c r="E21">
-        <v>34.274999999999999</v>
+        <v>34.275</v>
       </c>
       <c r="F21" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" t="s">
         <v>10</v>
       </c>
       <c r="B22">
-        <v>119.55108285289801</v>
+        <v>119.551082852898</v>
       </c>
       <c r="C22">
-        <v>149.88340946171661</v>
+        <v>149.8834094617166</v>
       </c>
       <c r="D22">
-        <v>0.39572875825707748</v>
+        <v>0.3957287582570775</v>
       </c>
       <c r="E22">
         <v>3.448</v>
       </c>
       <c r="F22" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" t="s">
         <v>9</v>
       </c>
       <c r="B23">
-        <v>82.589497390135961</v>
+        <v>82.58949739013596</v>
       </c>
       <c r="C23">
-        <v>97.541636209725439</v>
+        <v>97.54163620972544</v>
       </c>
       <c r="D23">
         <v>0.1306815400807084</v>
       </c>
       <c r="E23">
-        <v>23.751000000000001</v>
+        <v>23.751</v>
       </c>
       <c r="F23" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" t="s">
         <v>10</v>
       </c>
@@ -1005,59 +1036,59 @@
         <v>111.3737756367571</v>
       </c>
       <c r="C24">
-        <v>148.49384471886091</v>
+        <v>148.4938447188609</v>
       </c>
       <c r="D24">
-        <v>0.16179921127046351</v>
+        <v>0.1617992112704635</v>
       </c>
       <c r="E24">
         <v>2.169</v>
       </c>
       <c r="F24" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" t="s">
         <v>9</v>
       </c>
       <c r="B25">
-        <v>84.292218828170562</v>
+        <v>84.29221882817056</v>
       </c>
       <c r="C25">
-        <v>98.517209100656004</v>
+        <v>98.517209100656</v>
       </c>
       <c r="D25">
-        <v>2.895609373731908E-2</v>
+        <v>0.02895609373731908</v>
       </c>
       <c r="E25">
-        <v>23.867000000000001</v>
+        <v>23.867</v>
       </c>
       <c r="F25" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" t="s">
         <v>10</v>
       </c>
       <c r="B26">
-        <v>107.48096785336909</v>
+        <v>107.4809678533691</v>
       </c>
       <c r="C26">
-        <v>140.25634716270741</v>
+        <v>140.2563471627074</v>
       </c>
       <c r="D26">
-        <v>0.30232706713078927</v>
+        <v>0.3023270671307893</v>
       </c>
       <c r="E26">
         <v>2.246</v>
       </c>
       <c r="F26" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" t="s">
         <v>11</v>
       </c>
@@ -1065,19 +1096,19 @@
         <v>108.2767599687256</v>
       </c>
       <c r="C27">
-        <v>133.10392786422599</v>
+        <v>133.103927864226</v>
       </c>
       <c r="D27">
-        <v>0.24396747342255409</v>
+        <v>0.2439674734225541</v>
       </c>
       <c r="E27">
-        <v>609.68299999999999</v>
+        <v>609.683</v>
       </c>
       <c r="F27" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" t="s">
         <v>11</v>
       </c>
@@ -1085,39 +1116,39 @@
         <v>177.6825473025801</v>
       </c>
       <c r="C28">
-        <v>221.42109697306111</v>
+        <v>221.4210969730611</v>
       </c>
       <c r="D28">
-        <v>0.54236705428974186</v>
+        <v>0.5423670542897419</v>
       </c>
       <c r="E28">
         <v>441.77</v>
       </c>
       <c r="F28" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" t="s">
         <v>11</v>
       </c>
       <c r="B29">
-        <v>78.237450932684496</v>
+        <v>78.2374509326845</v>
       </c>
       <c r="C29">
-        <v>95.555049796206774</v>
+        <v>95.55504979620677</v>
       </c>
       <c r="D29">
-        <v>0.17423319504183449</v>
+        <v>0.1742331950418345</v>
       </c>
       <c r="E29">
         <v>1328.309</v>
       </c>
       <c r="F29" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" t="s">
         <v>11</v>
       </c>
@@ -1128,36 +1159,36 @@
         <v>136.5963779207699</v>
       </c>
       <c r="D30">
-        <v>0.49550654825401769</v>
+        <v>0.4955065482540177</v>
       </c>
       <c r="E30">
-        <v>1268.3879999999999</v>
+        <v>1268.388</v>
       </c>
       <c r="F30" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" t="s">
         <v>11</v>
       </c>
       <c r="B31">
-        <v>82.136357741755177</v>
+        <v>82.13635774175518</v>
       </c>
       <c r="C31">
-        <v>96.627399223453452</v>
+        <v>96.62739922345345</v>
       </c>
       <c r="D31">
-        <v>0.14988996140548361</v>
+        <v>0.1498899614054836</v>
       </c>
       <c r="E31">
-        <v>892.59299999999996</v>
+        <v>892.593</v>
       </c>
       <c r="F31" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" t="s">
         <v>11</v>
       </c>
@@ -1165,19 +1196,19 @@
         <v>107.4078300726663</v>
       </c>
       <c r="C32">
-        <v>136.44624731055671</v>
+        <v>136.4462473105567</v>
       </c>
       <c r="D32">
-        <v>0.34481208820422238</v>
+        <v>0.3448120882042224</v>
       </c>
       <c r="E32">
         <v>851.51</v>
       </c>
       <c r="F32" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" t="s">
         <v>11</v>
       </c>
@@ -1185,19 +1216,19 @@
         <v>82.31022935779815</v>
       </c>
       <c r="C33">
-        <v>96.355749083584612</v>
+        <v>96.35574908358461</v>
       </c>
       <c r="D33">
-        <v>0.13016241137773629</v>
+        <v>0.1301624113777363</v>
       </c>
       <c r="E33">
-        <v>802.20699999999999</v>
+        <v>802.207</v>
       </c>
       <c r="F33" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" t="s">
         <v>11</v>
       </c>
@@ -1205,119 +1236,119 @@
         <v>105.4674357798165</v>
       </c>
       <c r="C34">
-        <v>135.47146095976589</v>
+        <v>135.4714609597659</v>
       </c>
       <c r="D34">
-        <v>0.38157178107551182</v>
+        <v>0.3815717810755118</v>
       </c>
       <c r="E34">
-        <v>763.88099999999997</v>
+        <v>763.881</v>
       </c>
       <c r="F34" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" t="s">
         <v>12</v>
       </c>
       <c r="B35">
-        <v>133.70890903700339</v>
+        <v>133.7089090370034</v>
       </c>
       <c r="C35">
         <v>168.9641799406613</v>
       </c>
       <c r="D35">
-        <v>-1.168849843694177E-2</v>
+        <v>-0.01168849843694177</v>
       </c>
       <c r="E35">
-        <v>0.47799999999999998</v>
+        <v>0.478</v>
       </c>
       <c r="F35" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" t="s">
         <v>13</v>
       </c>
       <c r="B36">
-        <v>221.11493354182949</v>
+        <v>221.1149335418295</v>
       </c>
       <c r="C36">
-        <v>272.23488289628631</v>
+        <v>272.2348828962863</v>
       </c>
       <c r="D36">
-        <v>0.27934073091494632</v>
+        <v>0.2793407309149463</v>
       </c>
       <c r="E36">
-        <v>0.13500000000000001</v>
+        <v>0.135</v>
       </c>
       <c r="F36" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" t="s">
         <v>12</v>
       </c>
       <c r="B37">
-        <v>95.565813092523996</v>
+        <v>95.565813092524</v>
       </c>
       <c r="C37">
         <v>120.1139826765873</v>
       </c>
       <c r="D37">
-        <v>-1.899400786283758E-3</v>
+        <v>-0.001899400786283758</v>
       </c>
       <c r="E37">
-        <v>0.18099999999999999</v>
+        <v>0.181</v>
       </c>
       <c r="F37" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" t="s">
         <v>13</v>
       </c>
       <c r="B38">
-        <v>129.53122465531229</v>
+        <v>129.5312246553123</v>
       </c>
       <c r="C38">
-        <v>162.91187603971841</v>
+        <v>162.9118760397184</v>
       </c>
       <c r="D38">
-        <v>0.28964126162456177</v>
+        <v>0.2896412616245618</v>
       </c>
       <c r="E38">
-        <v>0.28799999999999998</v>
+        <v>0.288</v>
       </c>
       <c r="F38" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" t="s">
         <v>12</v>
       </c>
       <c r="B39">
-        <v>97.339096487126611</v>
+        <v>97.33909648712661</v>
       </c>
       <c r="C39">
         <v>119.402582193589</v>
       </c>
       <c r="D39">
-        <v>5.1596874314440754E-3</v>
+        <v>0.005159687431444075</v>
       </c>
       <c r="E39">
         <v>0.158</v>
       </c>
       <c r="F39" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" t="s">
         <v>13</v>
       </c>
@@ -1325,39 +1356,39 @@
         <v>121.5790944661822</v>
       </c>
       <c r="C40">
-        <v>154.97485947044439</v>
+        <v>154.9748594704444</v>
       </c>
       <c r="D40">
-        <v>0.19229626640940209</v>
+        <v>0.1922962664094021</v>
       </c>
       <c r="E40">
-        <v>0.14499999999999999</v>
+        <v>0.145</v>
       </c>
       <c r="F40" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" t="s">
         <v>12</v>
       </c>
       <c r="B41">
-        <v>95.921131048536992</v>
+        <v>95.92113104853699</v>
       </c>
       <c r="C41">
-        <v>117.62811796888219</v>
+        <v>117.6281179688822</v>
       </c>
       <c r="D41">
-        <v>3.6734575220493657E-2</v>
+        <v>0.03673457522049366</v>
       </c>
       <c r="E41">
         <v>0.16</v>
       </c>
       <c r="F41" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" t="s">
         <v>13</v>
       </c>
@@ -1365,96 +1396,96 @@
         <v>122.6309250764526</v>
       </c>
       <c r="C42">
-        <v>157.46584929012559</v>
+        <v>157.4658492901256</v>
       </c>
       <c r="D42">
-        <v>0.21027686695831321</v>
+        <v>0.2102768669583132</v>
       </c>
       <c r="E42">
-        <v>0.16300000000000001</v>
+        <v>0.163</v>
       </c>
       <c r="F42" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" t="s">
         <v>14</v>
       </c>
       <c r="B43">
-        <v>108.12657458083569</v>
+        <v>108.1265745808357</v>
       </c>
       <c r="C43">
-        <v>141.65291499208911</v>
+        <v>141.6529149920891</v>
       </c>
       <c r="E43">
-        <v>4.5019999999999998</v>
+        <v>4.502</v>
       </c>
       <c r="F43" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" t="s">
         <v>14</v>
       </c>
       <c r="B44">
-        <v>224.49274433150899</v>
+        <v>224.492744331509</v>
       </c>
       <c r="C44">
-        <v>263.46799168471472</v>
+        <v>263.4679916847147</v>
       </c>
       <c r="D44">
-        <v>4.9931940670340132E-17</v>
+        <v>4.993194067034013e-17</v>
       </c>
       <c r="E44">
-        <v>5.0529999999999999</v>
+        <v>5.053</v>
       </c>
       <c r="F44" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" t="s">
         <v>14</v>
       </c>
       <c r="B45">
-        <v>77.803844282573166</v>
+        <v>77.80384428257317</v>
       </c>
       <c r="C45">
         <v>98.04976392193548</v>
       </c>
       <c r="D45">
-        <v>-4.6551598314813841E-2</v>
+        <v>-0.04655159831481384</v>
       </c>
       <c r="E45">
-        <v>16.370999999999999</v>
+        <v>16.371</v>
       </c>
       <c r="F45" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" t="s">
         <v>14</v>
       </c>
       <c r="B46">
-        <v>128.09907542543851</v>
+        <v>128.0990754254385</v>
       </c>
       <c r="C46">
         <v>157.2561459739556</v>
       </c>
       <c r="D46">
-        <v>1.33068493096273E-2</v>
+        <v>0.0133068493096273</v>
       </c>
       <c r="E46">
-        <v>16.042000000000002</v>
+        <v>16.042</v>
       </c>
       <c r="F46" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" t="s">
         <v>14</v>
       </c>
@@ -1462,19 +1493,19 @@
         <v>83.55472330910257</v>
       </c>
       <c r="C47">
-        <v>97.613693039210673</v>
+        <v>97.61369303921067</v>
       </c>
       <c r="D47">
-        <v>3.1652759518407598E-3</v>
+        <v>0.00316527595184076</v>
       </c>
       <c r="E47">
-        <v>6.7309999999999999</v>
+        <v>6.731</v>
       </c>
       <c r="F47" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" t="s">
         <v>14</v>
       </c>
@@ -1482,39 +1513,39 @@
         <v>111.496710053493</v>
       </c>
       <c r="C48">
-        <v>145.73526612267449</v>
+        <v>145.7352661226745</v>
       </c>
       <c r="D48">
-        <v>7.4821654972001333E-4</v>
+        <v>0.0007482165497200133</v>
       </c>
       <c r="E48">
-        <v>6.6929999999999996</v>
+        <v>6.693</v>
       </c>
       <c r="F48" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" t="s">
         <v>14</v>
       </c>
       <c r="B49">
-        <v>82.823595183490369</v>
+        <v>82.82359518349037</v>
       </c>
       <c r="C49">
-        <v>97.197577496054265</v>
+        <v>97.19757749605427</v>
       </c>
       <c r="D49">
-        <v>-1.473657296710539E-2</v>
+        <v>-0.01473657296710539</v>
       </c>
       <c r="E49">
-        <v>6.3979999999999997</v>
+        <v>6.398</v>
       </c>
       <c r="F49" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" t="s">
         <v>14</v>
       </c>
@@ -1522,79 +1553,79 @@
         <v>111.1142201834821</v>
       </c>
       <c r="C50">
-        <v>147.93763798391319</v>
+        <v>147.9376379839132</v>
       </c>
       <c r="D50">
-        <v>1.381398375215726E-2</v>
+        <v>0.01381398375215726</v>
       </c>
       <c r="E50">
-        <v>6.5529999999999999</v>
+        <v>6.553</v>
       </c>
       <c r="F50" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" t="s">
         <v>15</v>
       </c>
       <c r="B51">
-        <v>162.00408408258559</v>
+        <v>162.0040840825856</v>
       </c>
       <c r="C51">
         <v>203.8771895995086</v>
       </c>
       <c r="D51">
-        <v>7.5523338620036476E-2</v>
+        <v>0.07552333862003648</v>
       </c>
       <c r="E51">
-        <v>0.68600000000000005</v>
+        <v>0.6860000000000001</v>
       </c>
       <c r="F51" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" t="s">
         <v>16</v>
       </c>
       <c r="B52">
-        <v>181.04954335295429</v>
+        <v>181.0495433529543</v>
       </c>
       <c r="C52">
-        <v>229.60510346516901</v>
+        <v>229.605103465169</v>
       </c>
       <c r="D52">
-        <v>0.49874498136404682</v>
+        <v>0.4987449813640468</v>
       </c>
       <c r="E52">
-        <v>0.51500000000000001</v>
+        <v>0.515</v>
       </c>
       <c r="F52" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" t="s">
         <v>15</v>
       </c>
       <c r="B53">
-        <v>188.65849702674049</v>
+        <v>188.6584970267405</v>
       </c>
       <c r="C53">
-        <v>246.81092767672851</v>
+        <v>246.8109276767285</v>
       </c>
       <c r="D53">
-        <v>-2.9585572761396482E-2</v>
+        <v>-0.02958557276139648</v>
       </c>
       <c r="E53">
-        <v>0.96899999999999997</v>
+        <v>0.969</v>
       </c>
       <c r="F53" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" t="s">
         <v>16</v>
       </c>
@@ -1602,39 +1633,39 @@
         <v>111.2534249314224</v>
       </c>
       <c r="C54">
-        <v>138.83205646273191</v>
+        <v>138.8320564627319</v>
       </c>
       <c r="D54">
-        <v>0.47009801981888161</v>
+        <v>0.4700980198188816</v>
       </c>
       <c r="E54">
-        <v>1.0529999999999999</v>
+        <v>1.053</v>
       </c>
       <c r="F54" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" t="s">
         <v>15</v>
       </c>
       <c r="B55">
-        <v>160.66190651737881</v>
+        <v>160.6619065173788</v>
       </c>
       <c r="C55">
-        <v>217.83293089247559</v>
+        <v>217.8329308924756</v>
       </c>
       <c r="D55">
-        <v>3.8677027072878727E-2</v>
+        <v>0.03867702707287873</v>
       </c>
       <c r="E55">
         <v>0.78</v>
       </c>
       <c r="F55" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" t="s">
         <v>16</v>
       </c>
@@ -1645,16 +1676,16 @@
         <v>136.9015318610281</v>
       </c>
       <c r="D56">
-        <v>0.33384788563451939</v>
+        <v>0.3338478856345194</v>
       </c>
       <c r="E56">
-        <v>0.81299999999999994</v>
+        <v>0.8129999999999999</v>
       </c>
       <c r="F56" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" t="s">
         <v>15</v>
       </c>
@@ -1662,19 +1693,19 @@
         <v>231.7645182599025</v>
       </c>
       <c r="C57">
-        <v>2517.1341240950328</v>
+        <v>2517.134124095033</v>
       </c>
       <c r="D57">
-        <v>-1.9060973969911101E-2</v>
+        <v>-0.0190609739699111</v>
       </c>
       <c r="E57">
-        <v>0.57299999999999995</v>
+        <v>0.573</v>
       </c>
       <c r="F57" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" t="s">
         <v>16</v>
       </c>
@@ -1685,16 +1716,16 @@
         <v>417.1690030547619</v>
       </c>
       <c r="D58">
-        <v>3.326433876064689E-2</v>
+        <v>0.03326433876064689</v>
       </c>
       <c r="E58">
-        <v>0.64300000000000002</v>
+        <v>0.643</v>
       </c>
       <c r="F58" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" t="s">
         <v>17</v>
       </c>
@@ -1702,21 +1733,21 @@
         <v>1858.638389366693</v>
       </c>
       <c r="C59">
-        <v>1863.6748861102519</v>
+        <v>1863.674886110252</v>
       </c>
       <c r="E59">
         <v>0.216</v>
       </c>
       <c r="F59" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" t="s">
         <v>18</v>
       </c>
       <c r="B60">
-        <v>533.07467133445232</v>
+        <v>533.0746713344523</v>
       </c>
       <c r="C60">
         <v>668.5925779114242</v>
@@ -1728,35 +1759,35 @@
         <v>1.27</v>
       </c>
       <c r="F60" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" t="s">
         <v>17</v>
       </c>
       <c r="B61">
-        <v>2493.2287104622869</v>
+        <v>2493.228710462287</v>
       </c>
       <c r="C61">
-        <v>2495.1048393132978</v>
+        <v>2495.104839313298</v>
       </c>
       <c r="E61">
-        <v>0.31900000000000001</v>
+        <v>0.319</v>
       </c>
       <c r="F61" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" t="s">
         <v>18</v>
       </c>
       <c r="B62">
-        <v>293.33108105895388</v>
+        <v>293.3310810589539</v>
       </c>
       <c r="C62">
-        <v>367.95626806624318</v>
+        <v>367.9562680662432</v>
       </c>
       <c r="D62">
         <v>0.1099147808442457</v>
@@ -1765,10 +1796,10 @@
         <v>2.117</v>
       </c>
       <c r="F62" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" t="s">
         <v>17</v>
       </c>
@@ -1779,33 +1810,33 @@
         <v>2203.600736105418</v>
       </c>
       <c r="E63">
-        <v>0.22500000000000001</v>
+        <v>0.225</v>
       </c>
       <c r="F63" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" t="s">
         <v>18</v>
       </c>
       <c r="B64">
-        <v>285.46661905472081</v>
+        <v>285.4666190547208</v>
       </c>
       <c r="C64">
-        <v>364.52203750598989</v>
+        <v>364.5220375059899</v>
       </c>
       <c r="D64">
-        <v>6.6429666003105167E-2</v>
+        <v>0.06642966600310517</v>
       </c>
       <c r="E64">
         <v>1.383</v>
       </c>
       <c r="F64" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" t="s">
         <v>17</v>
       </c>
@@ -1813,33 +1844,213 @@
         <v>2210.196674311926</v>
       </c>
       <c r="C65">
-        <v>2212.3254494977482</v>
+        <v>2212.325449497748</v>
       </c>
       <c r="E65">
         <v>0.217</v>
       </c>
       <c r="F65" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" t="s">
         <v>18</v>
       </c>
       <c r="B66">
-        <v>315.06073729365789</v>
+        <v>315.0607372936579</v>
       </c>
       <c r="C66">
-        <v>394.86294001369572</v>
+        <v>394.8629400136957</v>
       </c>
       <c r="D66">
-        <v>6.7959554351634602E-2</v>
+        <v>0.0679595543516346</v>
       </c>
       <c r="E66">
         <v>1.768</v>
       </c>
       <c r="F66" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67" t="s">
+        <v>19</v>
+      </c>
+      <c r="B67">
+        <v>105.6424727198147</v>
+      </c>
+      <c r="C67">
+        <v>133.1580212279679</v>
+      </c>
+      <c r="D67">
+        <v>0.2681006268264952</v>
+      </c>
+      <c r="E67">
+        <v>19.561</v>
+      </c>
+      <c r="F67" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68" t="s">
+        <v>19</v>
+      </c>
+      <c r="B68">
+        <v>105.6424727198147</v>
+      </c>
+      <c r="C68">
+        <v>133.1580212279679</v>
+      </c>
+      <c r="D68">
+        <v>0.2681006268264952</v>
+      </c>
+      <c r="E68">
+        <v>20.194</v>
+      </c>
+      <c r="F68" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69" t="s">
+        <v>20</v>
+      </c>
+      <c r="B69">
+        <v>192.1546080983845</v>
+      </c>
+      <c r="C69">
+        <v>231.9694720321393</v>
+      </c>
+      <c r="D69">
+        <v>0.5260833830268079</v>
+      </c>
+      <c r="E69">
+        <v>11.289</v>
+      </c>
+      <c r="F69" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70" t="s">
+        <v>19</v>
+      </c>
+      <c r="B70">
+        <v>77.28919331497804</v>
+      </c>
+      <c r="C70">
+        <v>95.48951816328082</v>
+      </c>
+      <c r="D70">
+        <v>0.171579973765833</v>
+      </c>
+      <c r="E70">
+        <v>42.728</v>
+      </c>
+      <c r="F70" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="A71" t="s">
+        <v>20</v>
+      </c>
+      <c r="B71">
+        <v>115.1488431713365</v>
+      </c>
+      <c r="C71">
+        <v>142.4569358019485</v>
+      </c>
+      <c r="D71">
+        <v>0.4802035926153754</v>
+      </c>
+      <c r="E71">
+        <v>30.704</v>
+      </c>
+      <c r="F71" t="s">
         <v>31</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="A72" t="s">
+        <v>19</v>
+      </c>
+      <c r="B72">
+        <v>82.32466836154441</v>
+      </c>
+      <c r="C72">
+        <v>96.47021880113654</v>
+      </c>
+      <c r="D72">
+        <v>0.1557832564718588</v>
+      </c>
+      <c r="E72">
+        <v>28.97</v>
+      </c>
+      <c r="F72" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
+      <c r="A73" t="s">
+        <v>20</v>
+      </c>
+      <c r="B73">
+        <v>105.9714994363265</v>
+      </c>
+      <c r="C73">
+        <v>137.3889880964706</v>
+      </c>
+      <c r="D73">
+        <v>0.3574094502528631</v>
+      </c>
+      <c r="E73">
+        <v>17.088</v>
+      </c>
+      <c r="F73" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
+      <c r="A74" t="s">
+        <v>19</v>
+      </c>
+      <c r="B74">
+        <v>82.19715919997837</v>
+      </c>
+      <c r="C74">
+        <v>96.48374620274592</v>
+      </c>
+      <c r="D74">
+        <v>0.1147262887673543</v>
+      </c>
+      <c r="E74">
+        <v>25.237</v>
+      </c>
+      <c r="F74" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
+      <c r="A75" t="s">
+        <v>20</v>
+      </c>
+      <c r="B75">
+        <v>107.3814655100221</v>
+      </c>
+      <c r="C75">
+        <v>188.1267685467508</v>
+      </c>
+      <c r="D75">
+        <v>0.06747654741874409</v>
+      </c>
+      <c r="E75">
+        <v>16.692</v>
+      </c>
+      <c r="F75" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/models/class_results.xlsx
+++ b/models/class_results.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\PredictingRatings\models\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -210,8 +215,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -270,17 +275,25 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -318,9 +331,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -352,9 +365,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -386,9 +400,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -561,14 +576,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="76.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -588,7 +606,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -596,50 +614,50 @@
         <v>102.9807772127814</v>
       </c>
       <c r="C2">
-        <v>129.0026838446255</v>
+        <v>129.00268384462549</v>
       </c>
       <c r="D2">
-        <v>0.3101891235985902</v>
+        <v>0.31018912359859019</v>
       </c>
       <c r="E2">
-        <v>0.026</v>
+        <v>2.5999999999999999E-2</v>
       </c>
       <c r="F2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
       <c r="B3">
-        <v>173.6768164921847</v>
+        <v>173.67681649218471</v>
       </c>
       <c r="C3">
-        <v>218.0610047170883</v>
+        <v>218.06100471708831</v>
       </c>
       <c r="D3">
-        <v>0.5649173284207548</v>
+        <v>0.56491732842075482</v>
       </c>
       <c r="E3">
-        <v>0.032</v>
+        <v>3.2000000000000001E-2</v>
       </c>
       <c r="F3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
       <c r="B4">
-        <v>77.38712559097002</v>
+        <v>77.387125590970015</v>
       </c>
       <c r="C4">
-        <v>95.7975675379928</v>
+        <v>95.797567537992805</v>
       </c>
       <c r="D4">
-        <v>0.2175725437242675</v>
+        <v>0.21757254372426749</v>
       </c>
       <c r="E4">
         <v>0.04</v>
@@ -648,38 +666,38 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
       <c r="B5">
-        <v>108.6086250406207</v>
+        <v>108.60862504062069</v>
       </c>
       <c r="C5">
         <v>135.8539818808093</v>
       </c>
       <c r="D5">
-        <v>0.5015885580225455</v>
+        <v>0.50158855802254554</v>
       </c>
       <c r="E5">
-        <v>0.039</v>
+        <v>3.9E-2</v>
       </c>
       <c r="F5" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
       <c r="B6">
-        <v>80.61675507921795</v>
+        <v>80.616755079217953</v>
       </c>
       <c r="C6">
         <v>94.97498995796164</v>
       </c>
       <c r="D6">
-        <v>0.2378129055944802</v>
+        <v>0.23781290559448021</v>
       </c>
       <c r="E6">
         <v>0.04</v>
@@ -688,7 +706,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -696,39 +714,39 @@
         <v>102.869006477094</v>
       </c>
       <c r="C7">
-        <v>132.8270104335448</v>
+        <v>132.82701043354481</v>
       </c>
       <c r="D7">
-        <v>0.3901094901347655</v>
+        <v>0.39010949013476548</v>
       </c>
       <c r="E7">
-        <v>0.028</v>
+        <v>2.8000000000000001E-2</v>
       </c>
       <c r="F7" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>80.31981788444814</v>
+        <v>80.319817884448142</v>
       </c>
       <c r="C8">
-        <v>94.82994059507067</v>
+        <v>94.829940595070667</v>
       </c>
       <c r="D8">
         <v>0.2286830746748991</v>
       </c>
       <c r="E8">
-        <v>0.028</v>
+        <v>2.8000000000000001E-2</v>
       </c>
       <c r="F8" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -739,16 +757,16 @@
         <v>134.6304044763221</v>
       </c>
       <c r="D9">
-        <v>0.4048795631611896</v>
+        <v>0.40487956316118962</v>
       </c>
       <c r="E9">
-        <v>0.037</v>
+        <v>3.6999999999999998E-2</v>
       </c>
       <c r="F9" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -756,19 +774,19 @@
         <v>106.9246012509773</v>
       </c>
       <c r="C10">
-        <v>132.042951936661</v>
+        <v>132.04295193666101</v>
       </c>
       <c r="D10">
-        <v>0.2695257832515613</v>
+        <v>0.26952578325156129</v>
       </c>
       <c r="E10">
-        <v>15.508</v>
+        <v>15.507999999999999</v>
       </c>
       <c r="F10" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -779,36 +797,36 @@
         <v>229.3154734519922</v>
       </c>
       <c r="D11">
-        <v>0.5273696860885325</v>
+        <v>0.52736968608853252</v>
       </c>
       <c r="E11">
-        <v>7.519</v>
+        <v>7.5190000000000001</v>
       </c>
       <c r="F11" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>7</v>
       </c>
       <c r="B12">
-        <v>77.40177716950527</v>
+        <v>77.401777169505266</v>
       </c>
       <c r="C12">
-        <v>94.89990477471247</v>
+        <v>94.899904774712468</v>
       </c>
       <c r="D12">
-        <v>0.196934741663286</v>
+        <v>0.19693474166328601</v>
       </c>
       <c r="E12">
-        <v>35.547</v>
+        <v>35.546999999999997</v>
       </c>
       <c r="F12" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>8</v>
       </c>
@@ -816,30 +834,30 @@
         <v>114.877200729927</v>
       </c>
       <c r="C13">
-        <v>142.2743512209715</v>
+        <v>142.27435122097151</v>
       </c>
       <c r="D13">
-        <v>0.4639618062030463</v>
+        <v>0.46396180620304628</v>
       </c>
       <c r="E13">
-        <v>24.118</v>
+        <v>24.117999999999999</v>
       </c>
       <c r="F13" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>7</v>
       </c>
       <c r="B14">
-        <v>82.13521101173841</v>
+        <v>82.135211011738406</v>
       </c>
       <c r="C14">
-        <v>96.55758501419635</v>
+        <v>96.557585014196349</v>
       </c>
       <c r="D14">
-        <v>0.1491770259887769</v>
+        <v>0.14917702598877691</v>
       </c>
       <c r="E14">
         <v>25.474</v>
@@ -848,7 +866,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>8</v>
       </c>
@@ -859,7 +877,7 @@
         <v>137.1639466392626</v>
       </c>
       <c r="D15">
-        <v>0.3677895920783507</v>
+        <v>0.36778959207835071</v>
       </c>
       <c r="E15">
         <v>13.734</v>
@@ -868,7 +886,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>7</v>
       </c>
@@ -876,30 +894,30 @@
         <v>82.58058056192661</v>
       </c>
       <c r="C16">
-        <v>96.61798341045024</v>
+        <v>96.617983410450236</v>
       </c>
       <c r="D16">
         <v>0.1099376916902529</v>
       </c>
       <c r="E16">
-        <v>21.127</v>
+        <v>21.126999999999999</v>
       </c>
       <c r="F16" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>8</v>
       </c>
       <c r="B17">
-        <v>104.4763130733945</v>
+        <v>104.47631307339449</v>
       </c>
       <c r="C17">
-        <v>137.8926470897426</v>
+        <v>137.89264708974261</v>
       </c>
       <c r="D17">
-        <v>0.3860758697385662</v>
+        <v>0.38607586973856622</v>
       </c>
       <c r="E17">
         <v>13.272</v>
@@ -908,7 +926,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>9</v>
       </c>
@@ -916,10 +934,10 @@
         <v>142.5652623421874</v>
       </c>
       <c r="C18">
-        <v>193.3509243094261</v>
+        <v>193.35092430942609</v>
       </c>
       <c r="D18">
-        <v>0.09402648123440444</v>
+        <v>9.4026481234404435E-2</v>
       </c>
       <c r="E18">
         <v>11.439</v>
@@ -928,7 +946,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>9</v>
       </c>
@@ -936,10 +954,10 @@
         <v>142.5652623421874</v>
       </c>
       <c r="C19">
-        <v>193.3509243094261</v>
+        <v>193.35092430942609</v>
       </c>
       <c r="D19">
-        <v>0.09402648123440444</v>
+        <v>9.4026481234404435E-2</v>
       </c>
       <c r="E19">
         <v>11.205</v>
@@ -948,7 +966,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>10</v>
       </c>
@@ -956,50 +974,50 @@
         <v>193.2572867786366</v>
       </c>
       <c r="C20">
-        <v>239.0853151119256</v>
+        <v>239.08531511192561</v>
       </c>
       <c r="D20">
-        <v>0.4411976737744193</v>
+        <v>0.44119767377441932</v>
       </c>
       <c r="E20">
-        <v>1.771</v>
+        <v>1.7709999999999999</v>
       </c>
       <c r="F20" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>9</v>
       </c>
       <c r="B21">
-        <v>88.6875876151953</v>
+        <v>88.687587615195298</v>
       </c>
       <c r="C21">
         <v>104.7579724156774</v>
       </c>
       <c r="D21">
-        <v>0.1155195484435279</v>
+        <v>0.11551954844352789</v>
       </c>
       <c r="E21">
-        <v>34.275</v>
+        <v>34.274999999999999</v>
       </c>
       <c r="F21" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>10</v>
       </c>
       <c r="B22">
-        <v>119.551082852898</v>
+        <v>119.55108285289801</v>
       </c>
       <c r="C22">
-        <v>149.8834094617166</v>
+        <v>149.88340946171661</v>
       </c>
       <c r="D22">
-        <v>0.3957287582570775</v>
+        <v>0.39572875825707748</v>
       </c>
       <c r="E22">
         <v>3.448</v>
@@ -1008,27 +1026,27 @@
         <v>31</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>9</v>
       </c>
       <c r="B23">
-        <v>82.58949739013596</v>
+        <v>82.589497390135961</v>
       </c>
       <c r="C23">
-        <v>97.54163620972544</v>
+        <v>97.541636209725439</v>
       </c>
       <c r="D23">
         <v>0.1306815400807084</v>
       </c>
       <c r="E23">
-        <v>23.751</v>
+        <v>23.751000000000001</v>
       </c>
       <c r="F23" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>10</v>
       </c>
@@ -1036,10 +1054,10 @@
         <v>111.3737756367571</v>
       </c>
       <c r="C24">
-        <v>148.4938447188609</v>
+        <v>148.49384471886091</v>
       </c>
       <c r="D24">
-        <v>0.1617992112704635</v>
+        <v>0.16179921127046351</v>
       </c>
       <c r="E24">
         <v>2.169</v>
@@ -1048,38 +1066,38 @@
         <v>32</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>9</v>
       </c>
       <c r="B25">
-        <v>84.29221882817056</v>
+        <v>84.292218828170562</v>
       </c>
       <c r="C25">
-        <v>98.517209100656</v>
+        <v>98.517209100656004</v>
       </c>
       <c r="D25">
-        <v>0.02895609373731908</v>
+        <v>2.895609373731908E-2</v>
       </c>
       <c r="E25">
-        <v>23.867</v>
+        <v>23.867000000000001</v>
       </c>
       <c r="F25" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>10</v>
       </c>
       <c r="B26">
-        <v>107.4809678533691</v>
+        <v>107.48096785336909</v>
       </c>
       <c r="C26">
-        <v>140.2563471627074</v>
+        <v>140.25634716270741</v>
       </c>
       <c r="D26">
-        <v>0.3023270671307893</v>
+        <v>0.30232706713078927</v>
       </c>
       <c r="E26">
         <v>2.246</v>
@@ -1088,7 +1106,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>11</v>
       </c>
@@ -1096,19 +1114,19 @@
         <v>108.2767599687256</v>
       </c>
       <c r="C27">
-        <v>133.103927864226</v>
+        <v>133.10392786422599</v>
       </c>
       <c r="D27">
-        <v>0.2439674734225541</v>
+        <v>0.24396747342255409</v>
       </c>
       <c r="E27">
-        <v>609.683</v>
+        <v>609.68299999999999</v>
       </c>
       <c r="F27" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>11</v>
       </c>
@@ -1116,10 +1134,10 @@
         <v>177.6825473025801</v>
       </c>
       <c r="C28">
-        <v>221.4210969730611</v>
+        <v>221.42109697306111</v>
       </c>
       <c r="D28">
-        <v>0.5423670542897419</v>
+        <v>0.54236705428974186</v>
       </c>
       <c r="E28">
         <v>441.77</v>
@@ -1128,18 +1146,18 @@
         <v>29</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>11</v>
       </c>
       <c r="B29">
-        <v>78.2374509326845</v>
+        <v>78.237450932684496</v>
       </c>
       <c r="C29">
-        <v>95.55504979620677</v>
+        <v>95.555049796206774</v>
       </c>
       <c r="D29">
-        <v>0.1742331950418345</v>
+        <v>0.17423319504183449</v>
       </c>
       <c r="E29">
         <v>1328.309</v>
@@ -1148,7 +1166,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>11</v>
       </c>
@@ -1159,36 +1177,36 @@
         <v>136.5963779207699</v>
       </c>
       <c r="D30">
-        <v>0.4955065482540177</v>
+        <v>0.49550654825401769</v>
       </c>
       <c r="E30">
-        <v>1268.388</v>
+        <v>1268.3879999999999</v>
       </c>
       <c r="F30" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>11</v>
       </c>
       <c r="B31">
-        <v>82.13635774175518</v>
+        <v>82.136357741755177</v>
       </c>
       <c r="C31">
-        <v>96.62739922345345</v>
+        <v>96.627399223453452</v>
       </c>
       <c r="D31">
-        <v>0.1498899614054836</v>
+        <v>0.14988996140548361</v>
       </c>
       <c r="E31">
-        <v>892.593</v>
+        <v>892.59299999999996</v>
       </c>
       <c r="F31" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>11</v>
       </c>
@@ -1196,10 +1214,10 @@
         <v>107.4078300726663</v>
       </c>
       <c r="C32">
-        <v>136.4462473105567</v>
+        <v>136.44624731055671</v>
       </c>
       <c r="D32">
-        <v>0.3448120882042224</v>
+        <v>0.34481208820422238</v>
       </c>
       <c r="E32">
         <v>851.51</v>
@@ -1208,7 +1226,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>11</v>
       </c>
@@ -1216,19 +1234,19 @@
         <v>82.31022935779815</v>
       </c>
       <c r="C33">
-        <v>96.35574908358461</v>
+        <v>96.355749083584612</v>
       </c>
       <c r="D33">
-        <v>0.1301624113777363</v>
+        <v>0.13016241137773629</v>
       </c>
       <c r="E33">
-        <v>802.207</v>
+        <v>802.20699999999999</v>
       </c>
       <c r="F33" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>11</v>
       </c>
@@ -1236,110 +1254,110 @@
         <v>105.4674357798165</v>
       </c>
       <c r="C34">
-        <v>135.4714609597659</v>
+        <v>135.47146095976589</v>
       </c>
       <c r="D34">
-        <v>0.3815717810755118</v>
+        <v>0.38157178107551182</v>
       </c>
       <c r="E34">
-        <v>763.881</v>
+        <v>763.88099999999997</v>
       </c>
       <c r="F34" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>12</v>
       </c>
       <c r="B35">
-        <v>133.7089090370034</v>
+        <v>133.70890903700339</v>
       </c>
       <c r="C35">
         <v>168.9641799406613</v>
       </c>
       <c r="D35">
-        <v>-0.01168849843694177</v>
+        <v>-1.168849843694177E-2</v>
       </c>
       <c r="E35">
-        <v>0.478</v>
+        <v>0.47799999999999998</v>
       </c>
       <c r="F35" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>13</v>
       </c>
       <c r="B36">
-        <v>221.1149335418295</v>
+        <v>221.11493354182949</v>
       </c>
       <c r="C36">
-        <v>272.2348828962863</v>
+        <v>272.23488289628631</v>
       </c>
       <c r="D36">
-        <v>0.2793407309149463</v>
+        <v>0.27934073091494632</v>
       </c>
       <c r="E36">
-        <v>0.135</v>
+        <v>0.13500000000000001</v>
       </c>
       <c r="F36" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>12</v>
       </c>
       <c r="B37">
-        <v>95.565813092524</v>
+        <v>95.565813092523996</v>
       </c>
       <c r="C37">
         <v>120.1139826765873</v>
       </c>
       <c r="D37">
-        <v>-0.001899400786283758</v>
+        <v>-1.899400786283758E-3</v>
       </c>
       <c r="E37">
-        <v>0.181</v>
+        <v>0.18099999999999999</v>
       </c>
       <c r="F37" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>13</v>
       </c>
       <c r="B38">
-        <v>129.5312246553123</v>
+        <v>129.53122465531229</v>
       </c>
       <c r="C38">
-        <v>162.9118760397184</v>
+        <v>162.91187603971841</v>
       </c>
       <c r="D38">
-        <v>0.2896412616245618</v>
+        <v>0.28964126162456177</v>
       </c>
       <c r="E38">
-        <v>0.288</v>
+        <v>0.28799999999999998</v>
       </c>
       <c r="F38" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>12</v>
       </c>
       <c r="B39">
-        <v>97.33909648712661</v>
+        <v>97.339096487126611</v>
       </c>
       <c r="C39">
         <v>119.402582193589</v>
       </c>
       <c r="D39">
-        <v>0.005159687431444075</v>
+        <v>5.1596874314440754E-3</v>
       </c>
       <c r="E39">
         <v>0.158</v>
@@ -1348,7 +1366,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>13</v>
       </c>
@@ -1356,30 +1374,30 @@
         <v>121.5790944661822</v>
       </c>
       <c r="C40">
-        <v>154.9748594704444</v>
+        <v>154.97485947044439</v>
       </c>
       <c r="D40">
-        <v>0.1922962664094021</v>
+        <v>0.19229626640940209</v>
       </c>
       <c r="E40">
-        <v>0.145</v>
+        <v>0.14499999999999999</v>
       </c>
       <c r="F40" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>12</v>
       </c>
       <c r="B41">
-        <v>95.92113104853699</v>
+        <v>95.921131048536992</v>
       </c>
       <c r="C41">
-        <v>117.6281179688822</v>
+        <v>117.62811796888219</v>
       </c>
       <c r="D41">
-        <v>0.03673457522049366</v>
+        <v>3.6734575220493657E-2</v>
       </c>
       <c r="E41">
         <v>0.16</v>
@@ -1388,7 +1406,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>13</v>
       </c>
@@ -1396,96 +1414,96 @@
         <v>122.6309250764526</v>
       </c>
       <c r="C42">
-        <v>157.4658492901256</v>
+        <v>157.46584929012559</v>
       </c>
       <c r="D42">
-        <v>0.2102768669583132</v>
+        <v>0.21027686695831321</v>
       </c>
       <c r="E42">
-        <v>0.163</v>
+        <v>0.16300000000000001</v>
       </c>
       <c r="F42" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>14</v>
       </c>
       <c r="B43">
-        <v>108.1265745808357</v>
+        <v>108.12657458083569</v>
       </c>
       <c r="C43">
-        <v>141.6529149920891</v>
+        <v>141.65291499208911</v>
       </c>
       <c r="E43">
-        <v>4.502</v>
+        <v>4.5019999999999998</v>
       </c>
       <c r="F43" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>14</v>
       </c>
       <c r="B44">
-        <v>224.492744331509</v>
+        <v>224.49274433150899</v>
       </c>
       <c r="C44">
-        <v>263.4679916847147</v>
+        <v>263.46799168471472</v>
       </c>
       <c r="D44">
-        <v>4.993194067034013e-17</v>
+        <v>4.9931940670340132E-17</v>
       </c>
       <c r="E44">
-        <v>5.053</v>
+        <v>5.0529999999999999</v>
       </c>
       <c r="F44" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>14</v>
       </c>
       <c r="B45">
-        <v>77.80384428257317</v>
+        <v>77.803844282573166</v>
       </c>
       <c r="C45">
         <v>98.04976392193548</v>
       </c>
       <c r="D45">
-        <v>-0.04655159831481384</v>
+        <v>-4.6551598314813841E-2</v>
       </c>
       <c r="E45">
-        <v>16.371</v>
+        <v>16.370999999999999</v>
       </c>
       <c r="F45" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>14</v>
       </c>
       <c r="B46">
-        <v>128.0990754254385</v>
+        <v>128.09907542543851</v>
       </c>
       <c r="C46">
         <v>157.2561459739556</v>
       </c>
       <c r="D46">
-        <v>0.0133068493096273</v>
+        <v>1.33068493096273E-2</v>
       </c>
       <c r="E46">
-        <v>16.042</v>
+        <v>16.042000000000002</v>
       </c>
       <c r="F46" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>14</v>
       </c>
@@ -1493,19 +1511,19 @@
         <v>83.55472330910257</v>
       </c>
       <c r="C47">
-        <v>97.61369303921067</v>
+        <v>97.613693039210673</v>
       </c>
       <c r="D47">
-        <v>0.00316527595184076</v>
+        <v>3.1652759518407598E-3</v>
       </c>
       <c r="E47">
-        <v>6.731</v>
+        <v>6.7309999999999999</v>
       </c>
       <c r="F47" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>14</v>
       </c>
@@ -1513,39 +1531,39 @@
         <v>111.496710053493</v>
       </c>
       <c r="C48">
-        <v>145.7352661226745</v>
+        <v>145.73526612267449</v>
       </c>
       <c r="D48">
-        <v>0.0007482165497200133</v>
+        <v>7.4821654972001333E-4</v>
       </c>
       <c r="E48">
-        <v>6.693</v>
+        <v>6.6929999999999996</v>
       </c>
       <c r="F48" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>14</v>
       </c>
       <c r="B49">
-        <v>82.82359518349037</v>
+        <v>82.823595183490369</v>
       </c>
       <c r="C49">
-        <v>97.19757749605427</v>
+        <v>97.197577496054265</v>
       </c>
       <c r="D49">
-        <v>-0.01473657296710539</v>
+        <v>-1.473657296710539E-2</v>
       </c>
       <c r="E49">
-        <v>6.398</v>
+        <v>6.3979999999999997</v>
       </c>
       <c r="F49" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>14</v>
       </c>
@@ -1553,79 +1571,79 @@
         <v>111.1142201834821</v>
       </c>
       <c r="C50">
-        <v>147.9376379839132</v>
+        <v>147.93763798391319</v>
       </c>
       <c r="D50">
-        <v>0.01381398375215726</v>
+        <v>1.381398375215726E-2</v>
       </c>
       <c r="E50">
-        <v>6.553</v>
+        <v>6.5529999999999999</v>
       </c>
       <c r="F50" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>15</v>
       </c>
       <c r="B51">
-        <v>162.0040840825856</v>
+        <v>162.00408408258559</v>
       </c>
       <c r="C51">
         <v>203.8771895995086</v>
       </c>
       <c r="D51">
-        <v>0.07552333862003648</v>
+        <v>7.5523338620036476E-2</v>
       </c>
       <c r="E51">
-        <v>0.6860000000000001</v>
+        <v>0.68600000000000005</v>
       </c>
       <c r="F51" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>16</v>
       </c>
       <c r="B52">
-        <v>181.0495433529543</v>
+        <v>181.04954335295429</v>
       </c>
       <c r="C52">
-        <v>229.605103465169</v>
+        <v>229.60510346516901</v>
       </c>
       <c r="D52">
-        <v>0.4987449813640468</v>
+        <v>0.49874498136404682</v>
       </c>
       <c r="E52">
-        <v>0.515</v>
+        <v>0.51500000000000001</v>
       </c>
       <c r="F52" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>15</v>
       </c>
       <c r="B53">
-        <v>188.6584970267405</v>
+        <v>188.65849702674049</v>
       </c>
       <c r="C53">
-        <v>246.8109276767285</v>
+        <v>246.81092767672851</v>
       </c>
       <c r="D53">
-        <v>-0.02958557276139648</v>
+        <v>-2.9585572761396482E-2</v>
       </c>
       <c r="E53">
-        <v>0.969</v>
+        <v>0.96899999999999997</v>
       </c>
       <c r="F53" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="54" spans="1:6">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>16</v>
       </c>
@@ -1633,30 +1651,30 @@
         <v>111.2534249314224</v>
       </c>
       <c r="C54">
-        <v>138.8320564627319</v>
+        <v>138.83205646273191</v>
       </c>
       <c r="D54">
-        <v>0.4700980198188816</v>
+        <v>0.47009801981888161</v>
       </c>
       <c r="E54">
-        <v>1.053</v>
+        <v>1.0529999999999999</v>
       </c>
       <c r="F54" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="55" spans="1:6">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>15</v>
       </c>
       <c r="B55">
-        <v>160.6619065173788</v>
+        <v>160.66190651737881</v>
       </c>
       <c r="C55">
-        <v>217.8329308924756</v>
+        <v>217.83293089247559</v>
       </c>
       <c r="D55">
-        <v>0.03867702707287873</v>
+        <v>3.8677027072878727E-2</v>
       </c>
       <c r="E55">
         <v>0.78</v>
@@ -1665,7 +1683,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="56" spans="1:6">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>16</v>
       </c>
@@ -1676,16 +1694,16 @@
         <v>136.9015318610281</v>
       </c>
       <c r="D56">
-        <v>0.3338478856345194</v>
+        <v>0.33384788563451939</v>
       </c>
       <c r="E56">
-        <v>0.8129999999999999</v>
+        <v>0.81299999999999994</v>
       </c>
       <c r="F56" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="57" spans="1:6">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>15</v>
       </c>
@@ -1693,19 +1711,19 @@
         <v>231.7645182599025</v>
       </c>
       <c r="C57">
-        <v>2517.134124095033</v>
+        <v>2517.1341240950328</v>
       </c>
       <c r="D57">
-        <v>-0.0190609739699111</v>
+        <v>-1.9060973969911101E-2</v>
       </c>
       <c r="E57">
-        <v>0.573</v>
+        <v>0.57299999999999995</v>
       </c>
       <c r="F57" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="58" spans="1:6">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>16</v>
       </c>
@@ -1716,16 +1734,16 @@
         <v>417.1690030547619</v>
       </c>
       <c r="D58">
-        <v>0.03326433876064689</v>
+        <v>3.326433876064689E-2</v>
       </c>
       <c r="E58">
-        <v>0.643</v>
+        <v>0.64300000000000002</v>
       </c>
       <c r="F58" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="59" spans="1:6">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>17</v>
       </c>
@@ -1733,7 +1751,7 @@
         <v>1858.638389366693</v>
       </c>
       <c r="C59">
-        <v>1863.674886110252</v>
+        <v>1863.6748861102519</v>
       </c>
       <c r="E59">
         <v>0.216</v>
@@ -1742,12 +1760,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="60" spans="1:6">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>18</v>
       </c>
       <c r="B60">
-        <v>533.0746713344523</v>
+        <v>533.07467133445232</v>
       </c>
       <c r="C60">
         <v>668.5925779114242</v>
@@ -1762,32 +1780,32 @@
         <v>29</v>
       </c>
     </row>
-    <row r="61" spans="1:6">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>17</v>
       </c>
       <c r="B61">
-        <v>2493.228710462287</v>
+        <v>2493.2287104622869</v>
       </c>
       <c r="C61">
-        <v>2495.104839313298</v>
+        <v>2495.1048393132978</v>
       </c>
       <c r="E61">
-        <v>0.319</v>
+        <v>0.31900000000000001</v>
       </c>
       <c r="F61" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="62" spans="1:6">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>18</v>
       </c>
       <c r="B62">
-        <v>293.3310810589539</v>
+        <v>293.33108105895388</v>
       </c>
       <c r="C62">
-        <v>367.9562680662432</v>
+        <v>367.95626806624318</v>
       </c>
       <c r="D62">
         <v>0.1099147808442457</v>
@@ -1799,7 +1817,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="63" spans="1:6">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>17</v>
       </c>
@@ -1810,24 +1828,24 @@
         <v>2203.600736105418</v>
       </c>
       <c r="E63">
-        <v>0.225</v>
+        <v>0.22500000000000001</v>
       </c>
       <c r="F63" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="64" spans="1:6">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>18</v>
       </c>
       <c r="B64">
-        <v>285.4666190547208</v>
+        <v>285.46661905472081</v>
       </c>
       <c r="C64">
-        <v>364.5220375059899</v>
+        <v>364.52203750598989</v>
       </c>
       <c r="D64">
-        <v>0.06642966600310517</v>
+        <v>6.6429666003105167E-2</v>
       </c>
       <c r="E64">
         <v>1.383</v>
@@ -1836,7 +1854,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="65" spans="1:6">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>17</v>
       </c>
@@ -1844,7 +1862,7 @@
         <v>2210.196674311926</v>
       </c>
       <c r="C65">
-        <v>2212.325449497748</v>
+        <v>2212.3254494977482</v>
       </c>
       <c r="E65">
         <v>0.217</v>
@@ -1853,18 +1871,18 @@
         <v>27</v>
       </c>
     </row>
-    <row r="66" spans="1:6">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>18</v>
       </c>
       <c r="B66">
-        <v>315.0607372936579</v>
+        <v>315.06073729365789</v>
       </c>
       <c r="C66">
-        <v>394.8629400136957</v>
+        <v>394.86294001369572</v>
       </c>
       <c r="D66">
-        <v>0.0679595543516346</v>
+        <v>6.7959554351634602E-2</v>
       </c>
       <c r="E66">
         <v>1.768</v>
@@ -1873,18 +1891,18 @@
         <v>33</v>
       </c>
     </row>
-    <row r="67" spans="1:6">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>19</v>
       </c>
       <c r="B67">
-        <v>105.6424727198147</v>
+        <v>105.64247271981471</v>
       </c>
       <c r="C67">
-        <v>133.1580212279679</v>
+        <v>133.15802122796791</v>
       </c>
       <c r="D67">
-        <v>0.2681006268264952</v>
+        <v>0.26810062682649521</v>
       </c>
       <c r="E67">
         <v>19.561</v>
@@ -1893,27 +1911,27 @@
         <v>23</v>
       </c>
     </row>
-    <row r="68" spans="1:6">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>19</v>
       </c>
       <c r="B68">
-        <v>105.6424727198147</v>
+        <v>105.64247271981471</v>
       </c>
       <c r="C68">
-        <v>133.1580212279679</v>
+        <v>133.15802122796791</v>
       </c>
       <c r="D68">
-        <v>0.2681006268264952</v>
+        <v>0.26810062682649521</v>
       </c>
       <c r="E68">
-        <v>20.194</v>
+        <v>20.193999999999999</v>
       </c>
       <c r="F68" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="69" spans="1:6">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>20</v>
       </c>
@@ -1921,7 +1939,7 @@
         <v>192.1546080983845</v>
       </c>
       <c r="C69">
-        <v>231.9694720321393</v>
+        <v>231.96947203213929</v>
       </c>
       <c r="D69">
         <v>0.5260833830268079</v>
@@ -1933,12 +1951,12 @@
         <v>29</v>
       </c>
     </row>
-    <row r="70" spans="1:6">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>19</v>
       </c>
       <c r="B70">
-        <v>77.28919331497804</v>
+        <v>77.289193314978036</v>
       </c>
       <c r="C70">
         <v>95.48951816328082</v>
@@ -1947,44 +1965,44 @@
         <v>0.171579973765833</v>
       </c>
       <c r="E70">
-        <v>42.728</v>
+        <v>42.728000000000002</v>
       </c>
       <c r="F70" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="71" spans="1:6">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>20</v>
       </c>
       <c r="B71">
-        <v>115.1488431713365</v>
+        <v>115.14884317133649</v>
       </c>
       <c r="C71">
         <v>142.4569358019485</v>
       </c>
       <c r="D71">
-        <v>0.4802035926153754</v>
+        <v>0.48020359261537537</v>
       </c>
       <c r="E71">
-        <v>30.704</v>
+        <v>30.704000000000001</v>
       </c>
       <c r="F71" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="72" spans="1:6">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>19</v>
       </c>
       <c r="B72">
-        <v>82.32466836154441</v>
+        <v>82.324668361544411</v>
       </c>
       <c r="C72">
-        <v>96.47021880113654</v>
+        <v>96.470218801136539</v>
       </c>
       <c r="D72">
-        <v>0.1557832564718588</v>
+        <v>0.15578325647185881</v>
       </c>
       <c r="E72">
         <v>28.97</v>
@@ -1993,7 +2011,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="73" spans="1:6">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>20</v>
       </c>
@@ -2004,21 +2022,21 @@
         <v>137.3889880964706</v>
       </c>
       <c r="D73">
-        <v>0.3574094502528631</v>
+        <v>0.35740945025286308</v>
       </c>
       <c r="E73">
-        <v>17.088</v>
+        <v>17.088000000000001</v>
       </c>
       <c r="F73" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="74" spans="1:6">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>19</v>
       </c>
       <c r="B74">
-        <v>82.19715919997837</v>
+        <v>82.197159199978373</v>
       </c>
       <c r="C74">
         <v>96.48374620274592</v>
@@ -2027,13 +2045,13 @@
         <v>0.1147262887673543</v>
       </c>
       <c r="E74">
-        <v>25.237</v>
+        <v>25.236999999999998</v>
       </c>
       <c r="F74" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="75" spans="1:6">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>20</v>
       </c>
@@ -2041,10 +2059,10 @@
         <v>107.3814655100221</v>
       </c>
       <c r="C75">
-        <v>188.1267685467508</v>
+        <v>188.12676854675081</v>
       </c>
       <c r="D75">
-        <v>0.06747654741874409</v>
+        <v>6.7476547418744093E-2</v>
       </c>
       <c r="E75">
         <v>16.692</v>

--- a/models/class_results.xlsx
+++ b/models/class_results.xlsx
@@ -1,25 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\PredictingRatings\models\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="33">
   <si>
     <t>Модель</t>
   </si>
@@ -40,6 +35,34 @@
   </si>
   <si>
     <t>LinearRegression(copy_X=True, fit_intercept=True, n_jobs=None, normalize=False)</t>
+  </si>
+  <si>
+    <t>AdaBoostRegressor(base_estimator=None, learning_rate=2, loss='square',
+                  n_estimators=500, random_state=4)</t>
+  </si>
+  <si>
+    <t>AdaBoostRegressor(base_estimator=None, learning_rate=2, loss='square',
+                  n_estimators=50, random_state=4)</t>
+  </si>
+  <si>
+    <t>ElasticNet(alpha=1, copy_X=True, fit_intercept=False, l1_ratio=0, max_iter=1000,
+           normalize=False, positive=False, precompute=False, random_state=4,
+           selection='cyclic', tol=0.0001, warm_start=False)</t>
+  </si>
+  <si>
+    <t>ElasticNet(alpha=0.5, copy_X=True, fit_intercept=True, l1_ratio=1,
+           max_iter=1000, normalize=False, positive=False, precompute=False,
+           random_state=4, selection='cyclic', tol=0.0001, warm_start=False)</t>
+  </si>
+  <si>
+    <t>KNeighborsRegressor(algorithm='auto', leaf_size=15, metric='chebyshev',
+                    metric_params=None, n_jobs=-1, n_neighbors=2, p=2,
+                    weights='distance')</t>
+  </si>
+  <si>
+    <t>KNeighborsRegressor(algorithm='auto', leaf_size=30, metric='euclidean',
+                    metric_params=None, n_jobs=-1, n_neighbors=3, p=2,
+                    weights='uniform')</t>
   </si>
   <si>
     <t>RandomForestRegressor(bootstrap=False, criterion='mae', max_depth=None,
@@ -60,47 +83,6 @@
                       warm_start=False)</t>
   </si>
   <si>
-    <t>AdaBoostRegressor(base_estimator=None, learning_rate=2, loss='square',
-                  n_estimators=500, random_state=4)</t>
-  </si>
-  <si>
-    <t>AdaBoostRegressor(base_estimator=None, learning_rate=2, loss='square',
-                  n_estimators=50, random_state=4)</t>
-  </si>
-  <si>
-    <t>ExtraTreesRegressor(bootstrap=False, criterion='mae', max_depth=None,
-                    max_features='auto', max_leaf_nodes=None,
-                    min_impurity_decrease=0.0, min_impurity_split=None,
-                    min_samples_leaf=1, min_samples_split=2,
-                    min_weight_fraction_leaf=0.0, n_estimators=500, n_jobs=-1,
-                    oob_score=False, random_state=4, verbose=0,
-                    warm_start=False)</t>
-  </si>
-  <si>
-    <t>KNeighborsRegressor(algorithm='auto', leaf_size=15, metric='chebyshev',
-                    metric_params=None, n_jobs=-1, n_neighbors=2, p=2,
-                    weights='distance')</t>
-  </si>
-  <si>
-    <t>KNeighborsRegressor(algorithm='auto', leaf_size=30, metric='euclidean',
-                    metric_params=None, n_jobs=-1, n_neighbors=3, p=2,
-                    weights='uniform')</t>
-  </si>
-  <si>
-    <t>SVR(C=1.0, cache_size=200, coef0=0.0, degree=3, epsilon=0.1, gamma='auto',
-    kernel='rbf', max_iter=-1, shrinking=True, tol=0.001, verbose=False)</t>
-  </si>
-  <si>
-    <t>ElasticNet(alpha=1, copy_X=True, fit_intercept=False, l1_ratio=0, max_iter=1000,
-           normalize=False, positive=False, precompute=False, random_state=4,
-           selection='cyclic', tol=0.0001, warm_start=False)</t>
-  </si>
-  <si>
-    <t>ElasticNet(alpha=0.5, copy_X=True, fit_intercept=True, l1_ratio=1,
-           max_iter=1000, normalize=False, positive=False, precompute=False,
-           random_state=4, selection='cyclic', tol=0.0001, warm_start=False)</t>
-  </si>
-  <si>
     <t>XGBRegressor(base_score=0.5, booster='gbtree', colsample_bylevel=1,
              colsample_bytree=1, gamma=0, importance_type='gain',
              learning_rate=0, max_delta_step=0, max_depth=3, min_child_weight=1,
@@ -116,6 +98,10 @@
              nthread=4, objective='reg:linear', random_state=0, reg_alpha=0,
              reg_lambda=1, scale_pos_weight=1, seed=4, silent=True,
              subsample=0.2)</t>
+  </si>
+  <si>
+    <t>SVR(C=1.0, cache_size=200, coef0=0.0, degree=3, epsilon=0.1, gamma='auto',
+    kernel='rbf', max_iter=-1, shrinking=True, tol=0.001, verbose=False)</t>
   </si>
   <si>
     <t>VotingRegressor(estimators=[('rf_vt',
@@ -208,15 +194,12 @@
   <si>
     <t>Обучение на разнице ЭЛО по 4 кластеру</t>
   </si>
-  <si>
-    <t>Обучение на среднем ЭЛО по начинающим</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -275,25 +258,17 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -331,9 +306,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -365,10 +340,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -400,10 +374,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -576,17 +549,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F75"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="76.42578125" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -606,1469 +576,1414 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>6</v>
       </c>
       <c r="B2">
-        <v>102.9807772127814</v>
+        <v>172.7449493153141</v>
       </c>
       <c r="C2">
-        <v>129.00268384462549</v>
+        <v>217.2737416409088</v>
       </c>
       <c r="D2">
-        <v>0.31018912359859019</v>
+        <v>0.4281993795927954</v>
       </c>
       <c r="E2">
-        <v>2.5999999999999999E-2</v>
+        <v>1.174</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>6</v>
       </c>
       <c r="B3">
-        <v>173.67681649218471</v>
+        <v>150.440189782439</v>
       </c>
       <c r="C3">
-        <v>218.06100471708831</v>
+        <v>192.1302111250937</v>
       </c>
       <c r="D3">
-        <v>0.56491732842075482</v>
+        <v>0.5722164726697495</v>
       </c>
       <c r="E3">
-        <v>3.2000000000000001E-2</v>
+        <v>0.113</v>
       </c>
       <c r="F3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>6</v>
       </c>
       <c r="B4">
-        <v>77.387125590970015</v>
+        <v>166.62966041833</v>
       </c>
       <c r="C4">
-        <v>95.797567537992805</v>
+        <v>207.8279448146874</v>
       </c>
       <c r="D4">
-        <v>0.21757254372426749</v>
+        <v>0.5691043757663526</v>
       </c>
       <c r="E4">
-        <v>0.04</v>
+        <v>0.107</v>
       </c>
       <c r="F4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>6</v>
       </c>
       <c r="B5">
-        <v>108.60862504062069</v>
+        <v>146.5681854350471</v>
       </c>
       <c r="C5">
-        <v>135.8539818808093</v>
+        <v>187.9703191525654</v>
       </c>
       <c r="D5">
-        <v>0.50158855802254554</v>
+        <v>0.6411822095616034</v>
       </c>
       <c r="E5">
-        <v>3.9E-2</v>
+        <v>0.008</v>
       </c>
       <c r="F5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
         <v>6</v>
       </c>
       <c r="B6">
-        <v>80.616755079217953</v>
+        <v>117.5648972835596</v>
       </c>
       <c r="C6">
-        <v>94.97498995796164</v>
+        <v>150.5524979571985</v>
       </c>
       <c r="D6">
-        <v>0.23781290559448021</v>
+        <v>0.8314121491813486</v>
       </c>
       <c r="E6">
-        <v>0.04</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="F6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
         <v>6</v>
       </c>
       <c r="B7">
-        <v>102.869006477094</v>
+        <v>95.69420367190607</v>
       </c>
       <c r="C7">
-        <v>132.82701043354481</v>
+        <v>120.2195877286468</v>
       </c>
       <c r="D7">
-        <v>0.39010949013476548</v>
+        <v>0.8738605735963093</v>
       </c>
       <c r="E7">
-        <v>2.8000000000000001E-2</v>
+        <v>0.008</v>
       </c>
       <c r="F7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>80.319817884448142</v>
+        <v>172.8521171709864</v>
       </c>
       <c r="C8">
-        <v>94.829940595070667</v>
+        <v>217.3588974679328</v>
       </c>
       <c r="D8">
-        <v>0.2286830746748991</v>
+        <v>0.5093807589822991</v>
       </c>
       <c r="E8">
-        <v>2.8000000000000001E-2</v>
+        <v>0.013</v>
       </c>
       <c r="F8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
         <v>6</v>
       </c>
       <c r="B9">
-        <v>103.7418931987754</v>
+        <v>149.3572829575021</v>
       </c>
       <c r="C9">
-        <v>134.6304044763221</v>
+        <v>190.4372045498727</v>
       </c>
       <c r="D9">
-        <v>0.40487956316118962</v>
+        <v>0.594318391095775</v>
       </c>
       <c r="E9">
-        <v>3.6999999999999998E-2</v>
+        <v>0.012</v>
       </c>
       <c r="F9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
         <v>7</v>
       </c>
       <c r="B10">
-        <v>106.9246012509773</v>
+        <v>179.6465479090126</v>
       </c>
       <c r="C10">
-        <v>132.04295193666101</v>
+        <v>226.2476059751376</v>
       </c>
       <c r="D10">
-        <v>0.26952578325156129</v>
+        <v>0.3776712290038455</v>
       </c>
       <c r="E10">
-        <v>15.507999999999999</v>
+        <v>92.545</v>
       </c>
       <c r="F10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
         <v>8</v>
       </c>
       <c r="B11">
-        <v>188.7703596559812</v>
+        <v>156.7747129069124</v>
       </c>
       <c r="C11">
-        <v>229.3154734519922</v>
+        <v>200.334685858934</v>
       </c>
       <c r="D11">
-        <v>0.52736968608853252</v>
+        <v>0.5352148492976028</v>
       </c>
       <c r="E11">
-        <v>7.5190000000000001</v>
+        <v>10.463</v>
       </c>
       <c r="F11" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" t="s">
         <v>7</v>
       </c>
       <c r="B12">
-        <v>77.401777169505266</v>
+        <v>400.3737570159177</v>
       </c>
       <c r="C12">
-        <v>94.899904774712468</v>
+        <v>460.4495958155287</v>
       </c>
       <c r="D12">
-        <v>0.19693474166328601</v>
+        <v>0.1581570452819261</v>
       </c>
       <c r="E12">
-        <v>35.546999999999997</v>
+        <v>1.081</v>
       </c>
       <c r="F12" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" t="s">
         <v>8</v>
       </c>
       <c r="B13">
-        <v>114.877200729927</v>
+        <v>245.5413136611372</v>
       </c>
       <c r="C13">
-        <v>142.27435122097151</v>
+        <v>300.5162699124081</v>
       </c>
       <c r="D13">
-        <v>0.46396180620304628</v>
+        <v>0.42919359703882</v>
       </c>
       <c r="E13">
-        <v>24.117999999999999</v>
+        <v>0.257</v>
       </c>
       <c r="F13" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" t="s">
         <v>7</v>
       </c>
       <c r="B14">
-        <v>82.135211011738406</v>
+        <v>353.5595559903263</v>
       </c>
       <c r="C14">
-        <v>96.557585014196349</v>
+        <v>430.2327032789863</v>
       </c>
       <c r="D14">
-        <v>0.14917702598877691</v>
+        <v>0.2822003078816207</v>
       </c>
       <c r="E14">
-        <v>25.474</v>
+        <v>0.781</v>
       </c>
       <c r="F14" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" t="s">
         <v>8</v>
       </c>
       <c r="B15">
-        <v>105.3255958636109</v>
+        <v>190.0056063454883</v>
       </c>
       <c r="C15">
-        <v>137.1639466392626</v>
+        <v>250.8018586755569</v>
       </c>
       <c r="D15">
-        <v>0.36778959207835071</v>
+        <v>0.4872947410667036</v>
       </c>
       <c r="E15">
-        <v>13.734</v>
+        <v>0.157</v>
       </c>
       <c r="F15" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" t="s">
         <v>7</v>
       </c>
       <c r="B16">
-        <v>82.58058056192661</v>
+        <v>302.5406305408891</v>
       </c>
       <c r="C16">
-        <v>96.617983410450236</v>
+        <v>365.5620501312019</v>
       </c>
       <c r="D16">
-        <v>0.1099376916902529</v>
+        <v>0.2220911579514239</v>
       </c>
       <c r="E16">
-        <v>21.126999999999999</v>
+        <v>4.528</v>
       </c>
       <c r="F16" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" t="s">
         <v>8</v>
       </c>
       <c r="B17">
-        <v>104.47631307339449</v>
+        <v>203.6168298242029</v>
       </c>
       <c r="C17">
-        <v>137.89264708974261</v>
+        <v>251.3282457020418</v>
       </c>
       <c r="D17">
-        <v>0.38607586973856622</v>
+        <v>0.4054058936713409</v>
       </c>
       <c r="E17">
-        <v>13.272</v>
+        <v>0.613</v>
       </c>
       <c r="F17" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B18">
-        <v>142.5652623421874</v>
+        <v>179.6465479090126</v>
       </c>
       <c r="C18">
-        <v>193.35092430942609</v>
+        <v>226.2476059751376</v>
       </c>
       <c r="D18">
-        <v>9.4026481234404435E-2</v>
+        <v>0.3776712290038455</v>
       </c>
       <c r="E18">
-        <v>11.439</v>
+        <v>92.90900000000001</v>
       </c>
       <c r="F18" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B19">
-        <v>142.5652623421874</v>
+        <v>156.7747129069124</v>
       </c>
       <c r="C19">
-        <v>193.35092430942609</v>
+        <v>200.334685858934</v>
       </c>
       <c r="D19">
-        <v>9.4026481234404435E-2</v>
+        <v>0.5352148492976028</v>
       </c>
       <c r="E19">
-        <v>11.205</v>
+        <v>9.808999999999999</v>
       </c>
       <c r="F19" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B20">
-        <v>193.2572867786366</v>
+        <v>400.3737570159177</v>
       </c>
       <c r="C20">
-        <v>239.08531511192561</v>
+        <v>460.4495958155287</v>
       </c>
       <c r="D20">
-        <v>0.44119767377441932</v>
+        <v>0.1581570452819261</v>
       </c>
       <c r="E20">
-        <v>1.7709999999999999</v>
+        <v>1.017</v>
       </c>
       <c r="F20" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B21">
-        <v>88.687587615195298</v>
+        <v>245.5413136611372</v>
       </c>
       <c r="C21">
-        <v>104.7579724156774</v>
+        <v>300.5162699124081</v>
       </c>
       <c r="D21">
-        <v>0.11551954844352789</v>
+        <v>0.42919359703882</v>
       </c>
       <c r="E21">
-        <v>34.274999999999999</v>
+        <v>0.209</v>
       </c>
       <c r="F21" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6">
       <c r="A22" t="s">
+        <v>7</v>
+      </c>
+      <c r="B22">
+        <v>353.5595559903263</v>
+      </c>
+      <c r="C22">
+        <v>430.2327032789863</v>
+      </c>
+      <c r="D22">
+        <v>0.2822003078816207</v>
+      </c>
+      <c r="E22">
+        <v>0.633</v>
+      </c>
+      <c r="F22" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23">
+        <v>190.0056063454883</v>
+      </c>
+      <c r="C23">
+        <v>250.8018586755569</v>
+      </c>
+      <c r="D23">
+        <v>0.4872947410667036</v>
+      </c>
+      <c r="E23">
+        <v>0.08699999999999999</v>
+      </c>
+      <c r="F23" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" t="s">
+        <v>7</v>
+      </c>
+      <c r="B24">
+        <v>302.5406305408891</v>
+      </c>
+      <c r="C24">
+        <v>365.5620501312019</v>
+      </c>
+      <c r="D24">
+        <v>0.2220911579514239</v>
+      </c>
+      <c r="E24">
+        <v>3.257</v>
+      </c>
+      <c r="F24" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" t="s">
+        <v>8</v>
+      </c>
+      <c r="B25">
+        <v>203.6168298242029</v>
+      </c>
+      <c r="C25">
+        <v>251.3282457020418</v>
+      </c>
+      <c r="D25">
+        <v>0.4054058936713409</v>
+      </c>
+      <c r="E25">
+        <v>0.492</v>
+      </c>
+      <c r="F25" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" t="s">
+        <v>9</v>
+      </c>
+      <c r="B26">
+        <v>240.2788009506783</v>
+      </c>
+      <c r="C26">
+        <v>313.4603874703535</v>
+      </c>
+      <c r="D26">
+        <v>0.1473571757859016</v>
+      </c>
+      <c r="E26">
+        <v>2.91</v>
+      </c>
+      <c r="F26" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" t="s">
         <v>10</v>
       </c>
-      <c r="B22">
-        <v>119.55108285289801</v>
-      </c>
-      <c r="C22">
-        <v>149.88340946171661</v>
-      </c>
-      <c r="D22">
-        <v>0.39572875825707748</v>
-      </c>
-      <c r="E22">
-        <v>3.448</v>
-      </c>
-      <c r="F22" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="B27">
+        <v>149.8520920647637</v>
+      </c>
+      <c r="C27">
+        <v>191.5593395690069</v>
+      </c>
+      <c r="D27">
+        <v>0.5611155492175851</v>
+      </c>
+      <c r="E27">
+        <v>1.486</v>
+      </c>
+      <c r="F27" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" t="s">
         <v>9</v>
       </c>
-      <c r="B23">
-        <v>82.589497390135961</v>
-      </c>
-      <c r="C23">
-        <v>97.541636209725439</v>
-      </c>
-      <c r="D23">
-        <v>0.1306815400807084</v>
-      </c>
-      <c r="E23">
-        <v>23.751000000000001</v>
-      </c>
-      <c r="F23" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>10</v>
-      </c>
-      <c r="B24">
-        <v>111.3737756367571</v>
-      </c>
-      <c r="C24">
-        <v>148.49384471886091</v>
-      </c>
-      <c r="D24">
-        <v>0.16179921127046351</v>
-      </c>
-      <c r="E24">
-        <v>2.169</v>
-      </c>
-      <c r="F24" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>9</v>
-      </c>
-      <c r="B25">
-        <v>84.292218828170562</v>
-      </c>
-      <c r="C25">
-        <v>98.517209100656004</v>
-      </c>
-      <c r="D25">
-        <v>2.895609373731908E-2</v>
-      </c>
-      <c r="E25">
-        <v>23.867000000000001</v>
-      </c>
-      <c r="F25" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>10</v>
-      </c>
-      <c r="B26">
-        <v>107.48096785336909</v>
-      </c>
-      <c r="C26">
-        <v>140.25634716270741</v>
-      </c>
-      <c r="D26">
-        <v>0.30232706713078927</v>
-      </c>
-      <c r="E26">
-        <v>2.246</v>
-      </c>
-      <c r="F26" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>11</v>
-      </c>
-      <c r="B27">
-        <v>108.2767599687256</v>
-      </c>
-      <c r="C27">
-        <v>133.10392786422599</v>
-      </c>
-      <c r="D27">
-        <v>0.24396747342255409</v>
-      </c>
-      <c r="E27">
-        <v>609.68299999999999</v>
-      </c>
-      <c r="F27" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>11</v>
-      </c>
       <c r="B28">
-        <v>177.6825473025801</v>
+        <v>238.0596344287059</v>
       </c>
       <c r="C28">
-        <v>221.42109697306111</v>
+        <v>308.3183047531963</v>
       </c>
       <c r="D28">
-        <v>0.54236705428974186</v>
+        <v>0.274455499354724</v>
       </c>
       <c r="E28">
-        <v>441.77</v>
+        <v>0.063</v>
       </c>
       <c r="F28" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6">
       <c r="A29" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B29">
-        <v>78.237450932684496</v>
+        <v>197.253489948655</v>
       </c>
       <c r="C29">
-        <v>95.555049796206774</v>
+        <v>278.1408298636339</v>
       </c>
       <c r="D29">
-        <v>0.17423319504183449</v>
+        <v>0.2893398974303862</v>
       </c>
       <c r="E29">
-        <v>1328.309</v>
+        <v>0.055</v>
       </c>
       <c r="F29" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6">
       <c r="A30" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B30">
-        <v>109.4029456609895</v>
+        <v>2558.474735559646</v>
       </c>
       <c r="C30">
-        <v>136.5963779207699</v>
+        <v>18692.10040476863</v>
       </c>
       <c r="D30">
-        <v>0.49550654825401769</v>
+        <v>-0.07044806231433726</v>
       </c>
       <c r="E30">
-        <v>1268.3879999999999</v>
+        <v>0.024</v>
       </c>
       <c r="F30" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" t="s">
+        <v>10</v>
+      </c>
+      <c r="B31">
+        <v>10415.50318245946</v>
+      </c>
+      <c r="C31">
+        <v>83063.92815834552</v>
+      </c>
+      <c r="D31">
+        <v>-0.1560971328043546</v>
+      </c>
+      <c r="E31">
+        <v>0.023</v>
+      </c>
+      <c r="F31" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>11</v>
-      </c>
-      <c r="B31">
-        <v>82.136357741755177</v>
-      </c>
-      <c r="C31">
-        <v>96.627399223453452</v>
-      </c>
-      <c r="D31">
-        <v>0.14988996140548361</v>
-      </c>
-      <c r="E31">
-        <v>892.59299999999996</v>
-      </c>
-      <c r="F31" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6">
       <c r="A32" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B32">
-        <v>107.4078300726663</v>
+        <v>297.1024580503556</v>
       </c>
       <c r="C32">
-        <v>136.44624731055671</v>
+        <v>1358.798794464437</v>
       </c>
       <c r="D32">
-        <v>0.34481208820422238</v>
+        <v>0.1168721396640922</v>
       </c>
       <c r="E32">
-        <v>851.51</v>
+        <v>0.091</v>
       </c>
       <c r="F32" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" t="s">
+        <v>10</v>
+      </c>
+      <c r="B33">
+        <v>196.3438193646044</v>
+      </c>
+      <c r="C33">
+        <v>662.4457826680573</v>
+      </c>
+      <c r="D33">
+        <v>0.06818730461605944</v>
+      </c>
+      <c r="E33">
+        <v>0.102</v>
+      </c>
+      <c r="F33" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>11</v>
-      </c>
-      <c r="B33">
-        <v>82.31022935779815</v>
-      </c>
-      <c r="C33">
-        <v>96.355749083584612</v>
-      </c>
-      <c r="D33">
-        <v>0.13016241137773629</v>
-      </c>
-      <c r="E33">
-        <v>802.20699999999999</v>
-      </c>
-      <c r="F33" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6">
       <c r="A34" t="s">
         <v>11</v>
       </c>
       <c r="B34">
-        <v>105.4674357798165</v>
+        <v>219.5901864464839</v>
       </c>
       <c r="C34">
-        <v>135.47146095976589</v>
+        <v>277.391623077877</v>
       </c>
       <c r="D34">
-        <v>0.38157178107551182</v>
+        <v>0.1453486582174581</v>
       </c>
       <c r="E34">
-        <v>763.88099999999997</v>
+        <v>0.768</v>
       </c>
       <c r="F34" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" t="s">
         <v>12</v>
       </c>
       <c r="B35">
-        <v>133.70890903700339</v>
+        <v>177.7496832395722</v>
       </c>
       <c r="C35">
-        <v>168.9641799406613</v>
+        <v>225.6146713911868</v>
       </c>
       <c r="D35">
-        <v>-1.168849843694177E-2</v>
+        <v>0.3959504207388354</v>
       </c>
       <c r="E35">
-        <v>0.47799999999999998</v>
+        <v>0.925</v>
       </c>
       <c r="F35" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B36">
-        <v>221.11493354182949</v>
+        <v>236.4282721876452</v>
       </c>
       <c r="C36">
-        <v>272.23488289628631</v>
+        <v>299.6578656441841</v>
       </c>
       <c r="D36">
-        <v>0.27934073091494632</v>
+        <v>0.1129437860190118</v>
       </c>
       <c r="E36">
-        <v>0.13500000000000001</v>
+        <v>0.12</v>
       </c>
       <c r="F36" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6">
       <c r="A37" t="s">
         <v>12</v>
       </c>
       <c r="B37">
-        <v>95.565813092523996</v>
+        <v>197.1472491909385</v>
       </c>
       <c r="C37">
-        <v>120.1139826765873</v>
+        <v>251.5398928430198</v>
       </c>
       <c r="D37">
-        <v>-1.899400786283758E-3</v>
+        <v>0.286940759685305</v>
       </c>
       <c r="E37">
-        <v>0.18099999999999999</v>
+        <v>0.118</v>
       </c>
       <c r="F37" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6">
       <c r="A38" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B38">
-        <v>129.53122465531229</v>
+        <v>249.0553916065118</v>
       </c>
       <c r="C38">
-        <v>162.91187603971841</v>
+        <v>310.4058426236365</v>
       </c>
       <c r="D38">
-        <v>0.28964126162456177</v>
+        <v>0.07286039569598224</v>
       </c>
       <c r="E38">
-        <v>0.28799999999999998</v>
+        <v>0.113</v>
       </c>
       <c r="F38" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" t="s">
         <v>12</v>
       </c>
       <c r="B39">
-        <v>97.339096487126611</v>
+        <v>222.9903381642513</v>
       </c>
       <c r="C39">
-        <v>119.402582193589</v>
+        <v>274.8043221256485</v>
       </c>
       <c r="D39">
-        <v>5.1596874314440754E-3</v>
+        <v>0.1235443084490827</v>
       </c>
       <c r="E39">
-        <v>0.158</v>
+        <v>0.112</v>
       </c>
       <c r="F39" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B40">
-        <v>121.5790944661822</v>
+        <v>237.1750029896155</v>
       </c>
       <c r="C40">
-        <v>154.97485947044439</v>
+        <v>296.7451159081193</v>
       </c>
       <c r="D40">
-        <v>0.19229626640940209</v>
+        <v>0.05867721802481925</v>
       </c>
       <c r="E40">
-        <v>0.14499999999999999</v>
+        <v>0.118</v>
       </c>
       <c r="F40" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" t="s">
         <v>12</v>
       </c>
       <c r="B41">
-        <v>95.921131048536992</v>
+        <v>198.131455399061</v>
       </c>
       <c r="C41">
-        <v>117.62811796888219</v>
+        <v>245.0526904047285</v>
       </c>
       <c r="D41">
-        <v>3.6734575220493657E-2</v>
+        <v>0.2887705259001901</v>
       </c>
       <c r="E41">
-        <v>0.16</v>
+        <v>0.117</v>
       </c>
       <c r="F41" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" t="s">
         <v>13</v>
       </c>
       <c r="B42">
-        <v>122.6309250764526</v>
+        <v>174.964671962901</v>
       </c>
       <c r="C42">
-        <v>157.46584929012559</v>
+        <v>220.5795163101587</v>
       </c>
       <c r="D42">
-        <v>0.21027686695831321</v>
+        <v>0.4169883055833093</v>
       </c>
       <c r="E42">
-        <v>0.16300000000000001</v>
+        <v>230.21</v>
       </c>
       <c r="F42" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" t="s">
         <v>14</v>
       </c>
       <c r="B43">
-        <v>108.12657458083569</v>
+        <v>156.6821027824236</v>
       </c>
       <c r="C43">
-        <v>141.65291499208911</v>
+        <v>197.0399685615713</v>
+      </c>
+      <c r="D43">
+        <v>0.5551169306486016</v>
       </c>
       <c r="E43">
-        <v>4.5019999999999998</v>
+        <v>156.221</v>
       </c>
       <c r="F43" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B44">
-        <v>224.49274433150899</v>
+        <v>183.0701577669903</v>
       </c>
       <c r="C44">
-        <v>263.46799168471472</v>
+        <v>237.9213950994869</v>
       </c>
       <c r="D44">
-        <v>4.9931940670340132E-17</v>
+        <v>0.2654956935026354</v>
       </c>
       <c r="E44">
-        <v>5.0529999999999999</v>
+        <v>1.19</v>
       </c>
       <c r="F44" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6">
       <c r="A45" t="s">
         <v>14</v>
       </c>
       <c r="B45">
-        <v>77.803844282573166</v>
+        <v>180.0910970873786</v>
       </c>
       <c r="C45">
-        <v>98.04976392193548</v>
+        <v>217.9033182411299</v>
       </c>
       <c r="D45">
-        <v>-4.6551598314813841E-2</v>
+        <v>0.5023451863589337</v>
       </c>
       <c r="E45">
-        <v>16.370999999999999</v>
+        <v>1.267</v>
       </c>
       <c r="F45" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6">
       <c r="A46" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B46">
-        <v>128.09907542543851</v>
+        <v>214.2215942028986</v>
       </c>
       <c r="C46">
-        <v>157.2561459739556</v>
+        <v>259.4031277935136</v>
       </c>
       <c r="D46">
-        <v>1.33068493096273E-2</v>
+        <v>0.2755664551574286</v>
       </c>
       <c r="E46">
-        <v>16.042000000000002</v>
+        <v>0.624</v>
       </c>
       <c r="F46" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" t="s">
         <v>14</v>
       </c>
       <c r="B47">
-        <v>83.55472330910257</v>
+        <v>177.5933913043478</v>
       </c>
       <c r="C47">
-        <v>97.613693039210673</v>
+        <v>222.670181898921</v>
       </c>
       <c r="D47">
-        <v>3.1652759518407598E-3</v>
+        <v>0.5842864042367809</v>
       </c>
       <c r="E47">
-        <v>6.7309999999999999</v>
+        <v>0.857</v>
       </c>
       <c r="F47" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B48">
-        <v>111.496710053493</v>
+        <v>186.5761795774648</v>
       </c>
       <c r="C48">
-        <v>145.73526612267449</v>
+        <v>232.7043342084636</v>
       </c>
       <c r="D48">
-        <v>7.4821654972001333E-4</v>
+        <v>0.3560045101606001</v>
       </c>
       <c r="E48">
-        <v>6.6929999999999996</v>
+        <v>3.166</v>
       </c>
       <c r="F48" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" t="s">
         <v>14</v>
       </c>
       <c r="B49">
-        <v>82.823595183490369</v>
+        <v>167.3011009389671</v>
       </c>
       <c r="C49">
-        <v>97.197577496054265</v>
+        <v>207.8736644402877</v>
       </c>
       <c r="D49">
-        <v>-1.473657296710539E-2</v>
+        <v>0.4955356006468849</v>
       </c>
       <c r="E49">
-        <v>6.3979999999999997</v>
+        <v>1.941</v>
       </c>
       <c r="F49" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B50">
-        <v>111.1142201834821</v>
+        <v>2246.999315797476</v>
       </c>
       <c r="C50">
-        <v>147.93763798391319</v>
-      </c>
-      <c r="D50">
-        <v>1.381398375215726E-2</v>
+        <v>2259.9696151572</v>
       </c>
       <c r="E50">
-        <v>6.5529999999999999</v>
+        <v>1.335</v>
       </c>
       <c r="F50" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" t="s">
+        <v>16</v>
+      </c>
+      <c r="B51">
+        <v>368.9040039461562</v>
+      </c>
+      <c r="C51">
+        <v>469.6440241861494</v>
+      </c>
+      <c r="D51">
+        <v>0.179557118343303</v>
+      </c>
+      <c r="E51">
+        <v>5.843</v>
+      </c>
+      <c r="F51" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" t="s">
         <v>15</v>
       </c>
-      <c r="B51">
-        <v>162.00408408258559</v>
-      </c>
-      <c r="C51">
-        <v>203.8771895995086</v>
-      </c>
-      <c r="D51">
-        <v>7.5523338620036476E-2</v>
-      </c>
-      <c r="E51">
-        <v>0.68600000000000005</v>
-      </c>
-      <c r="F51" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>16</v>
-      </c>
       <c r="B52">
-        <v>181.04954335295429</v>
+        <v>2169.402912621359</v>
       </c>
       <c r="C52">
-        <v>229.60510346516901</v>
-      </c>
-      <c r="D52">
-        <v>0.49874498136404682</v>
+        <v>2183.346809106366</v>
       </c>
       <c r="E52">
-        <v>0.51500000000000001</v>
+        <v>0.052</v>
       </c>
       <c r="F52" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6">
       <c r="A53" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B53">
-        <v>188.65849702674049</v>
+        <v>389.0337714037849</v>
       </c>
       <c r="C53">
-        <v>246.81092767672851</v>
+        <v>483.7358026329337</v>
       </c>
       <c r="D53">
-        <v>-2.9585572761396482E-2</v>
+        <v>0.1996469165214517</v>
       </c>
       <c r="E53">
-        <v>0.96899999999999997</v>
+        <v>0.211</v>
       </c>
       <c r="F53" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6">
       <c r="A54" t="s">
+        <v>15</v>
+      </c>
+      <c r="B54">
+        <v>2128.210144927536</v>
+      </c>
+      <c r="C54">
+        <v>2145.034654799278</v>
+      </c>
+      <c r="E54">
+        <v>0.032</v>
+      </c>
+      <c r="F54" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" t="s">
         <v>16</v>
       </c>
-      <c r="B54">
-        <v>111.2534249314224</v>
-      </c>
-      <c r="C54">
-        <v>138.83205646273191</v>
-      </c>
-      <c r="D54">
-        <v>0.47009801981888161</v>
-      </c>
-      <c r="E54">
-        <v>1.0529999999999999</v>
-      </c>
-      <c r="F54" t="s">
+      <c r="B55">
+        <v>328.3993625364442</v>
+      </c>
+      <c r="C55">
+        <v>401.4169170848245</v>
+      </c>
+      <c r="D55">
+        <v>0.2371819998936335</v>
+      </c>
+      <c r="E55">
+        <v>0.102</v>
+      </c>
+      <c r="F55" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
+    <row r="56" spans="1:6">
+      <c r="A56" t="s">
         <v>15</v>
       </c>
-      <c r="B55">
-        <v>160.66190651737881</v>
-      </c>
-      <c r="C55">
-        <v>217.83293089247559</v>
-      </c>
-      <c r="D55">
-        <v>3.8677027072878727E-2</v>
-      </c>
-      <c r="E55">
-        <v>0.78</v>
-      </c>
-      <c r="F55" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
+      <c r="B56">
+        <v>2196.305164319249</v>
+      </c>
+      <c r="C56">
+        <v>2210.351788594459</v>
+      </c>
+      <c r="E56">
+        <v>0.08</v>
+      </c>
+      <c r="F56" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" t="s">
         <v>16</v>
       </c>
-      <c r="B56">
-        <v>107.4913766131065</v>
-      </c>
-      <c r="C56">
-        <v>136.9015318610281</v>
-      </c>
-      <c r="D56">
-        <v>0.33384788563451939</v>
-      </c>
-      <c r="E56">
-        <v>0.81299999999999994</v>
-      </c>
-      <c r="F56" t="s">
+      <c r="B57">
+        <v>443.0630309257149</v>
+      </c>
+      <c r="C57">
+        <v>550.5548828311337</v>
+      </c>
+      <c r="D57">
+        <v>0.1001701815912304</v>
+      </c>
+      <c r="E57">
+        <v>0.379</v>
+      </c>
+      <c r="F57" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>15</v>
-      </c>
-      <c r="B57">
-        <v>231.7645182599025</v>
-      </c>
-      <c r="C57">
-        <v>2517.1341240950328</v>
-      </c>
-      <c r="D57">
-        <v>-1.9060973969911101E-2</v>
-      </c>
-      <c r="E57">
-        <v>0.57299999999999995</v>
-      </c>
-      <c r="F57" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6">
       <c r="A58" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B58">
-        <v>113.8696466351545</v>
+        <v>192.4579539933972</v>
       </c>
       <c r="C58">
-        <v>417.1690030547619</v>
+        <v>243.0399708478706</v>
       </c>
       <c r="D58">
-        <v>3.326433876064689E-2</v>
+        <v>0.0123970329853175</v>
       </c>
       <c r="E58">
-        <v>0.64300000000000002</v>
+        <v>90.24299999999999</v>
       </c>
       <c r="F58" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" t="s">
         <v>17</v>
       </c>
       <c r="B59">
-        <v>1858.638389366693</v>
+        <v>188.4890311790262</v>
       </c>
       <c r="C59">
-        <v>1863.6748861102519</v>
+        <v>231.4155297903992</v>
+      </c>
+      <c r="D59">
+        <v>0.008729030618130436</v>
       </c>
       <c r="E59">
-        <v>0.216</v>
+        <v>88.622</v>
       </c>
       <c r="F59" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B60">
-        <v>533.07467133445232</v>
+        <v>189.252427184466</v>
       </c>
       <c r="C60">
-        <v>668.5925779114242</v>
-      </c>
-      <c r="D60">
-        <v>0.1175238276591988</v>
+        <v>246.4050014859308</v>
       </c>
       <c r="E60">
-        <v>1.27</v>
+        <v>0.093</v>
       </c>
       <c r="F60" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6">
       <c r="A61" t="s">
         <v>17</v>
       </c>
       <c r="B61">
-        <v>2493.2287104622869</v>
+        <v>206.4417475728155</v>
       </c>
       <c r="C61">
-        <v>2495.1048393132978</v>
+        <v>243.6816869670489</v>
       </c>
       <c r="E61">
-        <v>0.31900000000000001</v>
+        <v>0.092</v>
       </c>
       <c r="F61" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6">
       <c r="A62" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B62">
-        <v>293.33108105895388</v>
+        <v>216.3260869565217</v>
       </c>
       <c r="C62">
-        <v>367.95626806624318</v>
-      </c>
-      <c r="D62">
-        <v>0.1099147808442457</v>
+        <v>268.3499027200402</v>
       </c>
       <c r="E62">
-        <v>2.117</v>
+        <v>0.013</v>
       </c>
       <c r="F62" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" t="s">
         <v>17</v>
       </c>
       <c r="B63">
-        <v>2201.437954164337</v>
+        <v>202.1376811594203</v>
       </c>
       <c r="C63">
-        <v>2203.600736105418</v>
+        <v>250.9126313096346</v>
       </c>
       <c r="E63">
-        <v>0.22500000000000001</v>
+        <v>0.014</v>
       </c>
       <c r="F63" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B64">
-        <v>285.46661905472081</v>
+        <v>198.0718309859155</v>
       </c>
       <c r="C64">
-        <v>364.52203750598989</v>
-      </c>
-      <c r="D64">
-        <v>6.6429666003105167E-2</v>
+        <v>250.0467882977667</v>
       </c>
       <c r="E64">
-        <v>1.383</v>
+        <v>0.377</v>
       </c>
       <c r="F64" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" t="s">
         <v>17</v>
       </c>
       <c r="B65">
-        <v>2210.196674311926</v>
+        <v>191.5023474178404</v>
       </c>
       <c r="C65">
-        <v>2212.3254494977482</v>
+        <v>233.486737592214</v>
       </c>
       <c r="E65">
-        <v>0.217</v>
+        <v>0.375</v>
       </c>
       <c r="F65" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" t="s">
         <v>18</v>
       </c>
       <c r="B66">
-        <v>315.06073729365789</v>
+        <v>176.5562823871758</v>
       </c>
       <c r="C66">
-        <v>394.86294001369572</v>
+        <v>222.6772134189579</v>
       </c>
       <c r="D66">
-        <v>6.7959554351634602E-2</v>
+        <v>0.4373481023232572</v>
       </c>
       <c r="E66">
-        <v>1.768</v>
+        <v>305.072</v>
       </c>
       <c r="F66" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" t="s">
         <v>19</v>
       </c>
       <c r="B67">
-        <v>105.64247271981471</v>
+        <v>159.3739980536713</v>
       </c>
       <c r="C67">
-        <v>133.15802122796791</v>
+        <v>199.3654573127035</v>
       </c>
       <c r="D67">
-        <v>0.26810062682649521</v>
+        <v>0.5692139928970962</v>
       </c>
       <c r="E67">
-        <v>19.561</v>
+        <v>215.346</v>
       </c>
       <c r="F67" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" t="s">
+        <v>18</v>
+      </c>
+      <c r="B68">
+        <v>177.1825575866967</v>
+      </c>
+      <c r="C68">
+        <v>231.8617013679809</v>
+      </c>
+      <c r="D68">
+        <v>0.338953113735416</v>
+      </c>
+      <c r="E68">
+        <v>2.855</v>
+      </c>
+      <c r="F68" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69" t="s">
         <v>19</v>
       </c>
-      <c r="B68">
-        <v>105.64247271981471</v>
-      </c>
-      <c r="C68">
-        <v>133.15802122796791</v>
-      </c>
-      <c r="D68">
-        <v>0.26810062682649521</v>
-      </c>
-      <c r="E68">
-        <v>20.193999999999999</v>
-      </c>
-      <c r="F68" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>20</v>
-      </c>
       <c r="B69">
-        <v>192.1546080983845</v>
+        <v>183.5749006591239</v>
       </c>
       <c r="C69">
-        <v>231.96947203213929</v>
+        <v>224.4093502641248</v>
       </c>
       <c r="D69">
-        <v>0.5260833830268079</v>
+        <v>0.3803694565221796</v>
       </c>
       <c r="E69">
-        <v>11.289</v>
+        <v>1.227</v>
       </c>
       <c r="F69" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" t="s">
+        <v>18</v>
+      </c>
+      <c r="B70">
+        <v>2723.068501838012</v>
+      </c>
+      <c r="C70">
+        <v>20628.84777230594</v>
+      </c>
+      <c r="D70">
+        <v>0.08053260474816101</v>
+      </c>
+      <c r="E70">
+        <v>0.758</v>
+      </c>
+      <c r="F70" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="A71" t="s">
         <v>19</v>
       </c>
-      <c r="B70">
-        <v>77.289193314978036</v>
-      </c>
-      <c r="C70">
-        <v>95.48951816328082</v>
-      </c>
-      <c r="D70">
-        <v>0.171579973765833</v>
-      </c>
-      <c r="E70">
-        <v>42.728000000000002</v>
-      </c>
-      <c r="F70" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>20</v>
-      </c>
       <c r="B71">
-        <v>115.14884317133649</v>
+        <v>2014.13750217916</v>
       </c>
       <c r="C71">
-        <v>142.4569358019485</v>
+        <v>15082.38571132243</v>
       </c>
       <c r="D71">
-        <v>0.48020359261537537</v>
+        <v>-0.1525827264611191</v>
       </c>
       <c r="E71">
-        <v>30.704000000000001</v>
+        <v>1.267</v>
       </c>
       <c r="F71" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6">
       <c r="A72" t="s">
+        <v>18</v>
+      </c>
+      <c r="B72">
+        <v>184.330204731475</v>
+      </c>
+      <c r="C72">
+        <v>231.242137024319</v>
+      </c>
+      <c r="D72">
+        <v>0.3907369148907734</v>
+      </c>
+      <c r="E72">
+        <v>3.11</v>
+      </c>
+      <c r="F72" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
+      <c r="A73" t="s">
         <v>19</v>
       </c>
-      <c r="B72">
-        <v>82.324668361544411</v>
-      </c>
-      <c r="C72">
-        <v>96.470218801136539</v>
-      </c>
-      <c r="D72">
-        <v>0.15578325647185881</v>
-      </c>
-      <c r="E72">
-        <v>28.97</v>
-      </c>
-      <c r="F72" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>20</v>
-      </c>
       <c r="B73">
-        <v>105.9714994363265</v>
+        <v>176.0906269820538</v>
       </c>
       <c r="C73">
-        <v>137.3889880964706</v>
+        <v>308.7763221286678</v>
       </c>
       <c r="D73">
-        <v>0.35740945025286308</v>
+        <v>0.1092499440750389</v>
       </c>
       <c r="E73">
-        <v>17.088000000000001</v>
+        <v>2.079</v>
       </c>
       <c r="F73" t="s">
         <v>32</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>19</v>
-      </c>
-      <c r="B74">
-        <v>82.197159199978373</v>
-      </c>
-      <c r="C74">
-        <v>96.48374620274592</v>
-      </c>
-      <c r="D74">
-        <v>0.1147262887673543</v>
-      </c>
-      <c r="E74">
-        <v>25.236999999999998</v>
-      </c>
-      <c r="F74" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>20</v>
-      </c>
-      <c r="B75">
-        <v>107.3814655100221</v>
-      </c>
-      <c r="C75">
-        <v>188.12676854675081</v>
-      </c>
-      <c r="D75">
-        <v>6.7476547418744093E-2</v>
-      </c>
-      <c r="E75">
-        <v>16.692</v>
-      </c>
-      <c r="F75" t="s">
-        <v>33</v>
       </c>
     </row>
   </sheetData>
